--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.239</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.211</v>
+        <v>19.915</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.089</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.954</v>
+        <v>17.765</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.984</v>
+        <v>16.591</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.99682852828881</v>
+        <v>15.25453765741424</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.99682852828881</v>
+        <v>34.0226824932251</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.99682852828881</v>
+        <v>40.05079193026354</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.99682852828881</v>
+        <v>10.49788775990403</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.99682852828881</v>
+        <v>29.87410843841708</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.99682852828881</v>
+        <v>35.39554218696874</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.99682852828881</v>
+        <v>18.14661140929907</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.99682852828881</v>
+        <v>40.13695034231007</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.99682852828881</v>
+        <v>46.58474395620347</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.99682852828881</v>
+        <v>41.56191396997538</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.99682852828881</v>
+        <v>50.47456447646842</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.99682852828881</v>
+        <v>54.07451043341605</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.99682852828881</v>
+        <v>22.15130218037707</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.99682852828881</v>
+        <v>42.64814592508169</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.99682852828881</v>
+        <v>51.50634150132448</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.99682852828881</v>
+        <v>18.97876193256247</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.99682852828881</v>
+        <v>37.75191495430404</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.99682852828881</v>
+        <v>43.7829146282191</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.99682852828881</v>
+        <v>14.21455552178152</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.99682852828881</v>
+        <v>33.59442798945584</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.99682852828881</v>
+        <v>39.11959349259833</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.99682852828881</v>
+        <v>21.86715248877926</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.99682852828881</v>
+        <v>43.8625919276936</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.99682852828881</v>
+        <v>50.31342942365991</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.99682852828881</v>
+        <v>45.2928255697479</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.99682852828881</v>
+        <v>54.21106230710878</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.99682852828881</v>
+        <v>57.81270414437422</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.99682852828881</v>
+        <v>25.87815660220822</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.99682852828881</v>
+        <v>46.38531609502634</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.99682852828881</v>
+        <v>55.24418092977244</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.99682852828881</v>
+        <v>27.19161636785902</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.99682852828881</v>
+        <v>45.9680827465523</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.99682852828881</v>
+        <v>52.00092274028755</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.99682852828881</v>
+        <v>22.4305838838023</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.99682852828881</v>
+        <v>41.81411566168534</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.99682852828881</v>
+        <v>47.34099812361929</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.99682852828881</v>
+        <v>30.08621558783484</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.99682852828881</v>
+        <v>52.08501869000425</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.99682852828881</v>
+        <v>58.53773392784917</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.99682852828881</v>
+        <v>53.52035055398058</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.99682852828881</v>
+        <v>62.43994287413234</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.99682852828881</v>
+        <v>66.0428949072777</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.99682852828881</v>
+        <v>34.10090125722759</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.99682852828881</v>
+        <v>54.61127187860332</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.99682852828881</v>
+        <v>63.47296351597545</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.99682852828881</v>
+        <v>21.62152319188733</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.99682852828881</v>
+        <v>40.39144811140666</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.99682852828881</v>
+        <v>46.41911697461553</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.99682852828881</v>
+        <v>16.86701687613181</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.99682852828881</v>
+        <v>36.24508244239276</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.99682852828881</v>
+        <v>41.76606110072642</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.99682852828881</v>
+        <v>24.51667003190921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.99682852828881</v>
+        <v>46.50867099451757</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.99682852828881</v>
+        <v>52.95608269199597</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.99682852828881</v>
+        <v>47.93324322876749</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.99682852828881</v>
+        <v>56.84620668616965</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.99682852828881</v>
+        <v>60.44553790287257</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.99682852828881</v>
+        <v>28.52006914708666</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.99682852828881</v>
+        <v>49.01974662582548</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.99682852828881</v>
+        <v>57.87676229431959</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.99682852828881</v>
+        <v>25.33593778143615</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.99682852828881</v>
+        <v>44.11087065168392</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.99682852828881</v>
+        <v>50.14142937939512</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.99682852828881</v>
+        <v>20.57387497597115</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.99682852828881</v>
+        <v>39.9555921375008</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.99682852828881</v>
+        <v>45.48030206898802</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.99682852828881</v>
+        <v>28.22740096669845</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.99682852828881</v>
+        <v>50.22450220397373</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.99682852828881</v>
+        <v>56.67495740340003</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.99682852828881</v>
+        <v>51.65434473482863</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.99682852828881</v>
+        <v>60.57289411597044</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.99682852828881</v>
+        <v>64.17392112933085</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.99682852828881</v>
+        <v>32.23711414863017</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.99682852828881</v>
+        <v>52.74710687306363</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.99682852828881</v>
+        <v>61.60479166388514</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.99682852828881</v>
+        <v>33.55448033280864</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.99682852828881</v>
+        <v>52.3327265397465</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.99682852828881</v>
+        <v>58.36512572930083</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.99682852828881</v>
+        <v>28.79559132929189</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.99682852828881</v>
+        <v>48.18096776362559</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.99682852828881</v>
+        <v>53.70739481768631</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.99682852828881</v>
+        <v>36.45215241191336</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.99682852828881</v>
+        <v>58.45261728530507</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.99682852828881</v>
+        <v>64.90495037441049</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.99682852828881</v>
+        <v>59.88755765036122</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.99682852828881</v>
+        <v>68.80746263845795</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.99682852828881</v>
+        <v>72.40979976439617</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.99682852828881</v>
+        <v>40.46554649825801</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.99682852828881</v>
+        <v>60.97875042791505</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.99682852828881</v>
+        <v>69.83926191229553</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.99682852828881</v>
+        <v>20.81477068850706</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.99682852828881</v>
+        <v>39.58418171404317</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.99682852828881</v>
+        <v>45.61171725641255</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.99682852828881</v>
+        <v>16.05954351099986</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.99682852828881</v>
+        <v>35.43707516680611</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.99682852828881</v>
+        <v>40.95790806682744</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.99682852828881</v>
+        <v>23.70918578122219</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.99682852828881</v>
+        <v>45.70071308954</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.99682852828881</v>
+        <v>52.14799153786426</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.99682852828881</v>
+        <v>47.12542656896046</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.99682852828881</v>
+        <v>56.03809097753408</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.99682852828881</v>
+        <v>59.63745764932021</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.99682852828881</v>
+        <v>27.71269368030012</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.99682852828881</v>
+        <v>48.21171397683629</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.99682852828881</v>
+        <v>57.06856581230893</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.99682852828881</v>
+        <v>24.53375158363503</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.99682852828881</v>
+        <v>43.30817066826405</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.99682852828881</v>
+        <v>49.33859606637186</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.99682852828881</v>
+        <v>19.77096813684495</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.99682852828881</v>
+        <v>39.15215151563036</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.99682852828881</v>
+        <v>44.67671570522232</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.99682852828881</v>
+        <v>27.42448343012718</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.99682852828881</v>
+        <v>49.42111112684593</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.99682852828881</v>
+        <v>55.87143306160779</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.99682852828881</v>
+        <v>50.85109453438629</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.99682852828881</v>
+        <v>59.76934485743523</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.99682852828881</v>
+        <v>63.37040730173995</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.99682852828881</v>
+        <v>31.43430498666187</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.99682852828881</v>
+        <v>51.94364062523466</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.99682852828881</v>
+        <v>60.80116158509379</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.99682852828881</v>
+        <v>32.75202612079029</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.99682852828881</v>
+        <v>51.52975857619101</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.99682852828881</v>
+        <v>57.56202444096364</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.99682852828881</v>
+        <v>27.99241646425839</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.99682852828881</v>
+        <v>47.37725916588552</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.99682852828881</v>
+        <v>52.90354047002218</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.99682852828881</v>
+        <v>35.64896681449211</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.99682852828881</v>
+        <v>57.64895817989084</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.99682852828881</v>
+        <v>64.10115801287061</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.99682852828881</v>
+        <v>59.08403942961895</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.99682852828881</v>
+        <v>68.00364536357024</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.99682852828881</v>
+        <v>71.60601794158443</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.99682852828881</v>
+        <v>39.66246928256199</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.99682852828881</v>
+        <v>60.17501615272802</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.99682852828881</v>
+        <v>69.03536380151589</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.99682852828881</v>
+        <v>13.68838852795154</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.99682852828881</v>
+        <v>32.45599381050609</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.99682852828881</v>
+        <v>38.48378138922574</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.99682852828881</v>
+        <v>8.931663714660953</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.99682852828881</v>
+        <v>28.30729215767503</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.99682852828881</v>
+        <v>33.82843557358088</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.99682852828881</v>
+        <v>16.57991532642411</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.99682852828881</v>
+        <v>38.56966639814398</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.99682852828881</v>
+        <v>45.01714317797901</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.99682852828881</v>
+        <v>39.9944509042809</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.99682852828881</v>
+        <v>48.90689621762893</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.99682852828881</v>
+        <v>52.50674736825052</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.99682852828881</v>
+        <v>20.5848068819168</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.99682852828881</v>
+        <v>41.08108847356148</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.99682852828881</v>
+        <v>49.93883114535136</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.99682852828881</v>
+        <v>17.41108041867922</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.99682852828881</v>
+        <v>36.18369371828801</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.99682852828881</v>
+        <v>42.21437153219831</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.99682852828881</v>
+        <v>12.64679915730785</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.99682852828881</v>
+        <v>32.02607926747596</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.99682852828881</v>
+        <v>37.55095440961516</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.99682852828881</v>
+        <v>20.29892389294839</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.99682852828881</v>
+        <v>42.29377529658809</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.99682852828881</v>
+        <v>48.74429595457293</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.99682852828881</v>
+        <v>43.72382977260948</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.99682852828881</v>
+        <v>52.64186116969252</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.99682852828881</v>
+        <v>56.243408200052</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.99682852828881</v>
+        <v>24.31012863522399</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.99682852828881</v>
+        <v>44.81672567396011</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.99682852828881</v>
+        <v>53.67513765006102</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.99682852828881</v>
+        <v>25.62502924721259</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.99682852828881</v>
+        <v>44.4009558895154</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.99682852828881</v>
+        <v>50.43347400638829</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.99682852828881</v>
+        <v>20.86392183360699</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.99682852828881</v>
+        <v>40.24686123747581</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.99682852828881</v>
+        <v>45.77345332057253</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.99682852828881</v>
+        <v>28.51908136377979</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.99682852828881</v>
+        <v>50.51729641786774</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.99682852828881</v>
+        <v>56.96969480597586</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.99682852828881</v>
+        <v>51.95244892649755</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.99682852828881</v>
+        <v>60.87183591470735</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.99682852828881</v>
+        <v>64.47469312983419</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.99682852828881</v>
+        <v>32.5339674759917</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.99682852828881</v>
+        <v>53.04377565017292</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.99682852828881</v>
+        <v>61.90501435566689</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.99682852828881</v>
+        <v>21.60420611410775</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.99682852828881</v>
+        <v>40.3729887916124</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.99682852828881</v>
+        <v>46.40088604249281</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.99682852828881</v>
+        <v>16.84798350950753</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.99682852828881</v>
+        <v>36.22491470775795</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.99682852828881</v>
+        <v>41.74613943298489</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.99682852828881</v>
+        <v>24.49721937500994</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.99682852828881</v>
+        <v>46.4882086083888</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.99682852828881</v>
+        <v>52.93579794209423</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.99682852828881</v>
+        <v>47.9126179032116</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.99682852828881</v>
+        <v>56.82559669824373</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.99682852828881</v>
+        <v>60.42545752118447</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.99682852828881</v>
+        <v>28.50161806913315</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.99682852828881</v>
+        <v>48.99894220335132</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.99682852828881</v>
+        <v>57.85689691739192</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.99682852828881</v>
+        <v>25.32934564404327</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.99682852828881</v>
+        <v>44.1031364106038</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.99682852828881</v>
+        <v>50.13392373069367</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.99682852828881</v>
+        <v>20.56556661616589</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.99682852828881</v>
+        <v>39.94614956190181</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.99682852828881</v>
+        <v>45.47110586534309</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.99682852828881</v>
+        <v>28.21867581048054</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.99682852828881</v>
+        <v>50.21476544553282</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.99682852828881</v>
+        <v>56.66539849108149</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.99682852828881</v>
+        <v>51.64444480633934</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.99682852828881</v>
+        <v>60.56300969563956</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.99682852828881</v>
+        <v>64.16456634242896</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.99682852828881</v>
+        <v>32.22938798528976</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.99682852828881</v>
+        <v>52.73702770342307</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.99682852828881</v>
+        <v>33.54115229174677</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.99682852828881</v>
+        <v>52.31825634741342</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.99682852828881</v>
+        <v>58.35088405262793</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.99682852828881</v>
+        <v>28.78054705465872</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.99682852828881</v>
+        <v>48.164789232194</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.99682852828881</v>
+        <v>53.69146253552704</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.99682852828881</v>
+        <v>36.43669093665081</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.99682852828881</v>
+        <v>58.43614416721353</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.99682852828881</v>
+        <v>64.8886550273581</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.99682852828881</v>
+        <v>59.87092175411028</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.99682852828881</v>
+        <v>68.79084224008484</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.99682852828881</v>
+        <v>72.39370908520341</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.99682852828881</v>
+        <v>40.45108465871904</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.99682852828881</v>
+        <v>60.96193545563331</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.99682852828881</v>
+        <v>69.82338618203069</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.99682852828881</v>
+        <v>23.62334157299331</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.99682852828881</v>
+        <v>42.39189013847063</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.99682852828881</v>
+        <v>48.41886308901515</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.99682852828881</v>
+        <v>18.86884600002731</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.99682852828881</v>
+        <v>38.24562476054503</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.99682852828881</v>
+        <v>43.76588272692204</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.99682852828881</v>
+        <v>26.51825744525247</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.99682852828881</v>
+        <v>48.5086896188272</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.99682852828881</v>
+        <v>54.95534139363333</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.99682852828881</v>
+        <v>49.9324997420559</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.99682852828881</v>
+        <v>58.84490445401828</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.99682852828881</v>
+        <v>62.444070755228</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.99682852828881</v>
+        <v>30.52117277148859</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.99682852828881</v>
+        <v>51.01858139522922</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.99682852828881</v>
+        <v>59.8748743185359</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.99682852828881</v>
+        <v>27.34850090747143</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.99682852828881</v>
+        <v>46.12205729670957</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.99682852828881</v>
+        <v>52.15191963172192</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.99682852828881</v>
+        <v>22.58644964320917</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.99682852828881</v>
+        <v>41.96688001723165</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.99682852828881</v>
+        <v>47.49086878771352</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.99682852828881</v>
+        <v>30.23973421375929</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.99682852828881</v>
+        <v>52.23526651710945</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.99682852828881</v>
+        <v>58.68496129723503</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.99682852828881</v>
+        <v>53.66434607077584</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.99682852828881</v>
+        <v>62.58233629213119</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.99682852828881</v>
+        <v>66.18319817503125</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.99682852828881</v>
+        <v>34.24896265921798</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.99682852828881</v>
+        <v>54.75668605886183</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.99682852828881</v>
+        <v>63.61364788281976</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.99682852828881</v>
+        <v>35.56232391079011</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.99682852828881</v>
+        <v>54.33919318765443</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.99682852828881</v>
+        <v>60.37089589502428</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.99682852828881</v>
+        <v>30.80344615127121</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.99682852828881</v>
+        <v>50.18753531191301</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.99682852828881</v>
+        <v>55.71324107697372</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.99682852828881</v>
+        <v>38.45976535802511</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.99682852828881</v>
+        <v>60.45866084254017</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.99682852828881</v>
+        <v>66.91023342785077</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.99682852828881</v>
+        <v>61.89283809408717</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.99682852828881</v>
+        <v>70.81218375805868</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.99682852828881</v>
+        <v>74.41435562459237</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.99682852828881</v>
+        <v>42.47267467348043</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.99682852828881</v>
+        <v>62.98360885351981</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.99682852828881</v>
+        <v>71.84339721302202</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.99682852828881</v>
+        <v>12.81399845995322</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.99682852828881</v>
+        <v>31.58022978819936</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.99682852828881</v>
+        <v>37.60746299857813</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.99682852828881</v>
+        <v>8.058143686045423</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.99682852828881</v>
+        <v>27.43241187257349</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.99682852828881</v>
+        <v>32.95294528475604</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.99682852828881</v>
+        <v>15.70636367651111</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.99682852828881</v>
+        <v>37.6944206130806</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.99682852828881</v>
+        <v>44.14134157954852</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.99682852828881</v>
+        <v>39.11946408644742</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.99682852828881</v>
+        <v>48.03077221370843</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.99682852828881</v>
+        <v>51.63001379330076</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.99682852828881</v>
+        <v>19.70989188767994</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.99682852828881</v>
+        <v>40.20500137075653</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.99682852828881</v>
+        <v>49.06154748913544</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.99682852828881</v>
+        <v>16.54001554697636</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.99682852828881</v>
+        <v>35.31125483108106</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.99682852828881</v>
+        <v>41.34137787779464</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.99682852828881</v>
+        <v>11.77660526930556</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.99682852828881</v>
+        <v>31.15452513108034</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.99682852828881</v>
+        <v>36.67878986025183</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.99682852828881</v>
+        <v>19.42869839714792</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.99682852828881</v>
+        <v>41.42185561604875</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.99682852828881</v>
+        <v>47.8718200290793</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.99682852828881</v>
+        <v>42.85216816369241</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.99682852828881</v>
+        <v>51.76906192072325</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.99682852828881</v>
+        <v>55.36999915771703</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.99682852828881</v>
+        <v>23.43853906662134</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.99682852828881</v>
+        <v>43.94396350030418</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.99682852828881</v>
+        <v>52.80117879496397</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.99682852828881</v>
+        <v>24.75626721849057</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.99682852828881</v>
+        <v>43.53081954852082</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.99682852828881</v>
+        <v>49.5627827911854</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.99682852828881</v>
+        <v>19.99603070511473</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.99682852828881</v>
+        <v>39.37760953680113</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.99682852828881</v>
+        <v>44.90359111203368</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.99682852828881</v>
+        <v>27.6511585258133</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.99682852828881</v>
+        <v>49.64767909136886</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.99682852828881</v>
+        <v>56.09952112510321</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.99682852828881</v>
+        <v>51.08308920332861</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.99682852828881</v>
+        <v>60.00133838319046</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.99682852828881</v>
+        <v>63.60358563139535</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.99682852828881</v>
+        <v>31.66468008168608</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.99682852828881</v>
+        <v>52.17331535159197</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.99682852828881</v>
+        <v>61.03335707711774</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.99682852828881</v>
+        <v>7.337335399735547</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.99682852828881</v>
+        <v>26.10540475552848</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.99682852828881</v>
+        <v>32.133391838322</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.99682852828881</v>
+        <v>2.580809954058349</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.99682852828881</v>
+        <v>21.95693470140698</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.99682852828881</v>
+        <v>27.47823644119883</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.99682852828881</v>
+        <v>10.2289842211838</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.99682852828881</v>
+        <v>32.21921744078698</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.99682852828881</v>
+        <v>38.66691001446095</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.99682852828881</v>
+        <v>33.6444507437654</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.99682852828881</v>
+        <v>42.55732052473907</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.99682852828881</v>
+        <v>46.15718037486677</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.99682852828881</v>
+        <v>14.2340338754504</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.99682852828881</v>
+        <v>34.73089548383071</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.99682852828881</v>
+        <v>43.58876812467209</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.99682852828881</v>
+        <v>11.05871758834446</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.99682852828881</v>
+        <v>29.83179495163069</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.99682852828881</v>
+        <v>35.86267214653317</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.99682852828881</v>
+        <v>6.294635635214785</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.99682852828881</v>
+        <v>25.67441202375023</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.99682852828881</v>
+        <v>31.19944534593715</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.99682852828881</v>
+        <v>13.94668305934188</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.99682852828881</v>
+        <v>35.94201660149231</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.99682852828881</v>
+        <v>42.3927529340037</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.99682852828881</v>
+        <v>37.37252004361694</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.99682852828881</v>
+        <v>46.29097597604569</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.99682852828881</v>
+        <v>49.89253165879343</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.99682852828881</v>
+        <v>17.95804626978083</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.99682852828881</v>
+        <v>38.46522333496803</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.99682852828881</v>
+        <v>47.32376521503404</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.99682852828881</v>
+        <v>19.27254456410135</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.99682852828881</v>
+        <v>38.0489352692634</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.99682852828881</v>
+        <v>44.08165291790188</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.99682852828881</v>
+        <v>14.51163649941072</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.99682852828881</v>
+        <v>33.89507217810588</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.99682852828881</v>
+        <v>39.4218225927619</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.99682852828881</v>
+        <v>22.166718727017</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.99682852828881</v>
+        <v>44.16541591701373</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.99682852828881</v>
+        <v>50.61803013199854</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.99682852828881</v>
+        <v>45.60101749725375</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.99682852828881</v>
+        <v>54.52082907367817</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.99682852828881</v>
+        <v>58.12369497895186</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.99682852828881</v>
+        <v>26.18176334590198</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.99682852828881</v>
+        <v>46.69215158219693</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.99682852828881</v>
+        <v>55.55352031323919</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.99682852828881</v>
+        <v>25.09284867738445</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.99682852828881</v>
+        <v>43.86233443989688</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.99682852828881</v>
+        <v>49.8899290495046</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.99682852828881</v>
+        <v>20.33890275995573</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.99682852828881</v>
+        <v>39.7167189761894</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.99682852828881</v>
+        <v>45.23757250826891</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.99682852828881</v>
+        <v>27.98897220846352</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.99682852828881</v>
+        <v>49.98046795206547</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.99682852828881</v>
+        <v>56.42774511089847</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.99682852828881</v>
+        <v>51.40486897724118</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.99682852828881</v>
+        <v>60.31750461233192</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.99682852828881</v>
+        <v>63.91687805946476</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.99682852828881</v>
+        <v>31.99265132700016</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.99682852828881</v>
+        <v>52.49136392629153</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.99682852828881</v>
+        <v>61.34849376274674</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.99682852828881</v>
+        <v>28.80714330692781</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.99682852828881</v>
+        <v>47.58163695349351</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.99682852828881</v>
+        <v>53.6121210581593</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.99682852828881</v>
+        <v>24.04564070678596</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.99682852828881</v>
+        <v>43.42710846093344</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.99682852828881</v>
+        <v>48.95169294309933</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.99682852828881</v>
+        <v>31.69958285970194</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.99682852828881</v>
+        <v>53.69617879805567</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.99682852828881</v>
+        <v>60.1464990828443</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.99682852828881</v>
+        <v>55.12584965511958</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.99682852828881</v>
+        <v>64.04407100737815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.99682852828881</v>
+        <v>67.64514009996363</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.99682852828881</v>
+        <v>35.70957562482324</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.99682852828881</v>
+        <v>56.21860324113023</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.99682852828881</v>
+        <v>65.07640183037195</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.99682852828881</v>
+        <v>37.02380678528944</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.99682852828881</v>
+        <v>55.80161348907309</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.99682852828881</v>
+        <v>61.83393803810618</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.99682852828881</v>
+        <v>32.26547818887998</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.99682852828881</v>
+        <v>51.65060492778851</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.99682852828881</v>
+        <v>57.1769064906792</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.99682852828881</v>
+        <v>39.92245521102593</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.99682852828881</v>
+        <v>61.92241450830279</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.99682852828881</v>
+        <v>68.37461266579778</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.99682852828881</v>
+        <v>63.35718326341085</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.99682852828881</v>
+        <v>72.27676012446996</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.99682852828881</v>
+        <v>75.87913926572897</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.99682852828881</v>
+        <v>43.93612888113405</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.99682852828881</v>
+        <v>64.44836745975711</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.99682852828881</v>
+        <v>73.30899275396014</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.99682852828881</v>
+        <v>6.053272781706095</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.99682852828881</v>
+        <v>24.81917753235161</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.99682852828881</v>
+        <v>30.84656545974435</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.99682852828881</v>
+        <v>1.297074500755524</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.99682852828881</v>
+        <v>20.67080628704771</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.99682852828881</v>
+        <v>26.19160136231103</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.99682852828881</v>
+        <v>8.94466102653082</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.99682852828881</v>
+        <v>30.93233078324858</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.99682852828881</v>
+        <v>37.37941686749407</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.99682852828881</v>
+        <v>32.35754664603265</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.99682852828881</v>
+        <v>41.26895191093804</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.99682852828881</v>
+        <v>44.8681682163412</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.99682852828881</v>
+        <v>12.94794800641075</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.99682852828881</v>
+        <v>33.44316720145441</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.99682852828881</v>
+        <v>42.29968059504434</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.99682852828881</v>
+        <v>9.774985829739375</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.99682852828881</v>
+        <v>28.54589824591512</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.99682852828881</v>
+        <v>34.57617610812459</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.99682852828881</v>
+        <v>5.011232095922946</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.99682852828881</v>
+        <v>24.38861528943307</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.99682852828881</v>
+        <v>29.91314167092089</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.99682852828881</v>
+        <v>12.66269152284321</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.99682852828881</v>
+        <v>34.65546127896796</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.99682852828881</v>
+        <v>41.10559090978946</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.99682852828881</v>
+        <v>36.08594661624336</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.99682852828881</v>
+        <v>45.00293748104328</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.99682852828881</v>
+        <v>48.60384944507457</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.99682852828881</v>
+        <v>16.67229144722371</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.99682852828881</v>
+        <v>37.17782518940278</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.99682852828881</v>
+        <v>46.03500795037208</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.99682852828881</v>
+        <v>17.99264128410239</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.99682852828881</v>
+        <v>36.76686686270723</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.99682852828881</v>
+        <v>42.798984933417</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.99682852828881</v>
+        <v>13.23206102888851</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.99682852828881</v>
+        <v>32.61310330355623</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.99682852828881</v>
+        <v>38.13934655577528</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.99682852828881</v>
+        <v>20.88655526289365</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.99682852828881</v>
+        <v>42.88268847219179</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.99682852828881</v>
+        <v>49.33469573518444</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.99682852828881</v>
+        <v>44.31827112047695</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.99682852828881</v>
+        <v>53.23661744111799</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.99682852828881</v>
+        <v>56.83883948789669</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.99682852828881</v>
+        <v>24.8998358909733</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.99682852828881</v>
+        <v>45.40858062897424</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.99682852828881</v>
+        <v>54.26858978909429</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.99682852828881</v>
+        <v>15.64715266222147</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.99682852828881</v>
+        <v>34.41554411381044</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.99682852828881</v>
+        <v>40.44267886668815</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.99682852828881</v>
+        <v>10.89166563413262</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.99682852828881</v>
+        <v>30.26807821539633</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.99682852828881</v>
+        <v>35.78853791535649</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.99682852828881</v>
+        <v>18.54043988379562</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.99682852828881</v>
+        <v>40.5308196334707</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.99682852828881</v>
+        <v>46.97769271624414</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.99682852828881</v>
+        <v>41.95551680095498</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.99682852828881</v>
+        <v>50.86788413681047</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.99682852828881</v>
+        <v>54.4670076932576</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.99682852828881</v>
+        <v>22.54388640720408</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.99682852828881</v>
+        <v>43.04172579194103</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.99682852828881</v>
+        <v>51.8979572436569</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.99682852828881</v>
+        <v>19.37222739748172</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.99682852828881</v>
+        <v>38.14562678958573</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.99682852828881</v>
+        <v>44.17565132236594</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.99682852828881</v>
+        <v>14.60918483530834</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.99682852828881</v>
+        <v>33.9892491210954</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.99682852828881</v>
+        <v>39.51343997884267</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.99682852828881</v>
+        <v>22.26183228099508</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.99682852828881</v>
+        <v>44.25731230096035</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.99682852828881</v>
+        <v>50.70722878931822</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.99682852828881</v>
+        <v>45.68727905237934</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.99682852828881</v>
+        <v>54.60523209887556</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.99682852828881</v>
+        <v>58.20605134830369</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.99682852828881</v>
+        <v>26.27159201173317</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.99682852828881</v>
+        <v>46.77974640654084</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.99682852828881</v>
+        <v>55.63664705262563</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.99682852828881</v>
+        <v>27.58963998659733</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.99682852828881</v>
+        <v>46.36635264458239</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.99682852828881</v>
+        <v>52.39821757609464</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.99682852828881</v>
+        <v>22.82977089987794</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.99682852828881</v>
+        <v>42.21349439526712</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.99682852828881</v>
+        <v>47.73940229605246</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.99682852828881</v>
+        <v>30.48545326462108</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.99682852828881</v>
+        <v>52.48429684283458</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.99682852828881</v>
+        <v>58.93609116222338</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.99682852828881</v>
+        <v>53.919361193223</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.99682852828881</v>
+        <v>62.83866980284445</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.99682852828881</v>
+        <v>66.44079915278094</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.99682852828881</v>
+        <v>34.49889377343943</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.99682852828881</v>
+        <v>55.01025928817133</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.99682852828881</v>
+        <v>63.86998648785193</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.99682852828881</v>
+        <v>6.136706800572437</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.99682852828881</v>
+        <v>24.90366963364006</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.99682852828881</v>
+        <v>30.93077836176048</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.99682852828881</v>
+        <v>1.380375303323444</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.99682852828881</v>
+        <v>20.75525226508723</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.99682852828881</v>
+        <v>26.27570864293314</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.99682852828881</v>
+        <v>9.028413777955574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.99682852828881</v>
+        <v>31.017319735929</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.99682852828881</v>
+        <v>37.46417167819432</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.99682852828881</v>
+        <v>32.44235538586061</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.99682852828881</v>
+        <v>41.35414975791612</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.99682852828881</v>
+        <v>44.95308941721915</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.99682852828881</v>
+        <v>13.03204449260984</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.99682852828881</v>
+        <v>33.52841886956953</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.99682852828881</v>
+        <v>42.38448320283437</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.99682852828881</v>
+        <v>9.852784424934793</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.99682852828881</v>
+        <v>28.62475501001775</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.99682852828881</v>
+        <v>34.65475373826025</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.99682852828881</v>
+        <v>5.088897057846292</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.99682852828881</v>
+        <v>24.46742546119374</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.99682852828881</v>
+        <v>29.99161321584752</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.99682852828881</v>
+        <v>12.74080819520664</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.99682852828881</v>
+        <v>34.73481422901473</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.99682852828881</v>
+        <v>41.18470979871434</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.99682852828881</v>
+        <v>36.16511984385745</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.99682852828881</v>
+        <v>45.08249995873241</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.99682852828881</v>
+        <v>48.68313539796993</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.99682852828881</v>
+        <v>16.75075243544729</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.99682852828881</v>
+        <v>37.25744165907106</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.99682852828881</v>
+        <v>46.1141753298195</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.99682852828881</v>
+        <v>18.07452676337921</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.99682852828881</v>
+        <v>36.84981075804951</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.99682852828881</v>
+        <v>42.88164975400328</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.99682852828881</v>
+        <v>13.31381309852322</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.99682852828881</v>
+        <v>32.69600084772624</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.99682852828881</v>
+        <v>38.22190552556056</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.99682852828881</v>
+        <v>20.96875945917038</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.99682852828881</v>
+        <v>42.9661292088402</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.99682852828881</v>
+        <v>49.41790247542185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.99682852828881</v>
+        <v>44.40153215745904</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.99682852828881</v>
+        <v>53.32026782172075</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.99682852828881</v>
+        <v>56.92221334207029</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.99682852828881</v>
+        <v>24.98238423619587</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.99682852828881</v>
+        <v>45.49228471743716</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.99682852828881</v>
+        <v>54.35184479793948</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.99682852828881</v>
+        <v>-0.231386315336227</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.99682852828881</v>
+        <v>18.53426589290661</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.99682852828881</v>
+        <v>24.56090968478504</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.99682852828881</v>
+        <v>-4.98802371579534</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.99682852828881</v>
+        <v>14.38548061894251</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.99682852828881</v>
+        <v>19.90548887552798</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.99682852828881</v>
+        <v>2.65888848685206</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.99682852828881</v>
+        <v>24.6463456027546</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.99682852828881</v>
+        <v>31.09272239011279</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.99682852828881</v>
+        <v>26.07129211331171</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.99682852828881</v>
+        <v>34.98262222256376</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.99682852828881</v>
+        <v>38.58149116547811</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.99682852828881</v>
+        <v>6.662574355287529</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.99682852828881</v>
+        <v>27.1574614538709</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.99682852828881</v>
+        <v>36.01296531266333</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.99682852828881</v>
+        <v>3.48663307405543</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.99682852828881</v>
+        <v>22.25729280024809</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.99682852828881</v>
+        <v>28.2868264942535</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.99682852828881</v>
+        <v>-1.27755971017864</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.99682852828881</v>
+        <v>18.09959591941624</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.99682852828881</v>
+        <v>23.62333540538232</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.99682852828881</v>
+        <v>6.373225110652765</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.99682852828881</v>
+        <v>28.36578206790689</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.99682852828881</v>
+        <v>34.81520237938692</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.99682852828881</v>
+        <v>29.79599825372402</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.99682852828881</v>
+        <v>38.71291388276173</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.99682852828881</v>
+        <v>42.3134785341867</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.99682852828881</v>
+        <v>10.38322409896825</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.99682852828881</v>
+        <v>30.88842558585982</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.99682852828881</v>
+        <v>39.74459879827801</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.99682852828881</v>
+        <v>11.70848301441692</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.99682852828881</v>
+        <v>30.48245603335085</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.99682852828881</v>
+        <v>36.51382996084699</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.99682852828881</v>
+        <v>6.947463643976857</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.99682852828881</v>
+        <v>26.32827849513781</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.99682852828881</v>
+        <v>31.85373488360501</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.99682852828881</v>
+        <v>14.60128360085066</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.99682852828881</v>
+        <v>36.59720415422119</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.99682852828881</v>
+        <v>43.04850212748416</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.99682852828881</v>
+        <v>38.0325173727061</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.99682852828881</v>
+        <v>46.95078852307968</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.99682852828881</v>
+        <v>50.55266320641677</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.99682852828881</v>
+        <v>18.6149629065804</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.99682852828881</v>
+        <v>39.12337555200175</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.99682852828881</v>
+        <v>47.9823750588974</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.99682852828881</v>
+        <v>13.67555158545992</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.99682852828881</v>
+        <v>32.44353275579893</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.99682852828881</v>
+        <v>38.47151420018004</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.99682852828881</v>
+        <v>8.918343895532598</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.99682852828881</v>
+        <v>28.29432891879544</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.99682852828881</v>
+        <v>33.81566548758776</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.99682852828881</v>
+        <v>16.56717390267643</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.99682852828881</v>
+        <v>38.55734411580723</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.99682852828881</v>
+        <v>45.00501188718052</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.99682852828881</v>
+        <v>39.98227738460533</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.99682852828881</v>
+        <v>48.89482405438578</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.99682852828881</v>
+        <v>52.49463960967132</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.99682852828881</v>
+        <v>20.57192170567141</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.99682852828881</v>
+        <v>41.06863653277999</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.99682852828881</v>
+        <v>49.92662261483822</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.99682852828881</v>
+        <v>17.39449599343579</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.99682852828881</v>
+        <v>36.16748519561527</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.99682852828881</v>
+        <v>42.19835680182742</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.99682852828881</v>
+        <v>12.62973158820916</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.99682852828881</v>
+        <v>32.00936824236335</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.99682852828881</v>
+        <v>37.53443648174898</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.99682852828881</v>
+        <v>20.28243457969888</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.99682852828881</v>
+        <v>42.27770514579773</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.99682852828881</v>
+        <v>48.728416716621</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.99682852828881</v>
+        <v>43.70790862514282</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.99682852828881</v>
+        <v>52.62604140809772</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.99682852828881</v>
+        <v>56.22755280625513</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.99682852828881</v>
+        <v>24.29349599944312</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.99682852828881</v>
+        <v>44.80052633826752</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.99682852828881</v>
+        <v>53.65918165483284</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.99682852828881</v>
+        <v>25.60976706621529</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.99682852828881</v>
+        <v>44.38606968835252</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.99682852828881</v>
+        <v>50.41878163658926</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.99682852828881</v>
+        <v>20.84817668270325</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.99682852828881</v>
+        <v>40.2314727239138</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.99682852828881</v>
+        <v>45.75825793083852</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.99682852828881</v>
+        <v>28.50391457158112</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.99682852828881</v>
+        <v>50.50254886513706</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.99682852828881</v>
+        <v>56.95513820665867</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.99682852828881</v>
+        <v>51.93785043453711</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.99682852828881</v>
+        <v>60.85733882666132</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.99682852828881</v>
+        <v>64.46016042494291</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.99682852828881</v>
+        <v>32.518657343812</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.99682852828881</v>
+        <v>53.02889889240767</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.99682852828881</v>
+        <v>61.89038098892406</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.99682852828881</v>
+        <v>18.91918790589314</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.99682852828881</v>
+        <v>37.68752465528151</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.99682852828881</v>
+        <v>43.71494447406788</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.99682852828881</v>
+        <v>14.16405590551853</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.99682852828881</v>
+        <v>33.54036045802589</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.99682852828881</v>
+        <v>39.0611362297994</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.99682852828881</v>
+        <v>21.81297266647125</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.99682852828881</v>
+        <v>43.8032442538077</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.99682852828881</v>
+        <v>50.250400055144</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.99682852828881</v>
+        <v>45.22789215480152</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.99682852828881</v>
+        <v>54.14028087125332</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.99682852828881</v>
+        <v>57.739470569208</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.99682852828881</v>
+        <v>25.81618263184243</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.99682852828881</v>
+        <v>46.31424019431286</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.99682852828881</v>
+        <v>55.17085671202592</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.99682852828881</v>
+        <v>22.63373821943032</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.99682852828881</v>
+        <v>41.40708270378487</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.99682852828881</v>
+        <v>47.4373924295049</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.99682852828881</v>
+        <v>17.87105016742641</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.99682852828881</v>
+        <v>37.2510061655898</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.99682852828881</v>
+        <v>42.77551320532002</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.99682852828881</v>
+        <v>25.52383956298565</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.99682852828881</v>
+        <v>47.51921121385597</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.99682852828881</v>
+        <v>53.96941055091402</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.99682852828881</v>
+        <v>48.94912917405436</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.99682852828881</v>
+        <v>57.86710359137039</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.99682852828881</v>
+        <v>61.46798902253302</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.99682852828881</v>
+        <v>29.5333632530589</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.99682852828881</v>
+        <v>50.04173561574437</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.99682852828881</v>
+        <v>58.89902139667841</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.99682852828881</v>
+        <v>30.85203713780215</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.99682852828881</v>
+        <v>49.62869491464274</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.99682852828881</v>
+        <v>55.6608449686042</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.99682852828881</v>
+        <v>26.09252263195669</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.99682852828881</v>
+        <v>45.47613784826679</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.99682852828881</v>
+        <v>51.00236188064044</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.99682852828881</v>
+        <v>33.74834698791376</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.99682852828881</v>
+        <v>55.7470822250735</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.99682852828881</v>
+        <v>62.19915931723752</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.99682852828881</v>
+        <v>57.18209775621933</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.99682852828881</v>
+        <v>66.10142777216693</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.99682852828881</v>
+        <v>69.70362330266444</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.99682852828881</v>
+        <v>37.76155148387802</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.99682852828881</v>
+        <v>58.27313500123053</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.99682852828881</v>
+        <v>67.13324730276038</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.99682852828881</v>
+        <v>21.70716996858944</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.99682852828881</v>
+        <v>40.47696690407606</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.99682852828881</v>
+        <v>46.50523528432912</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.99682852828881</v>
+        <v>16.95148138820953</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.99682852828881</v>
+        <v>36.32948676183692</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.99682852828881</v>
+        <v>41.85104538282708</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.99682852828881</v>
+        <v>24.60112150983975</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.99682852828881</v>
+        <v>46.59320449057562</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.99682852828881</v>
+        <v>53.04116584440403</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.99682852828881</v>
+        <v>48.0179198462849</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.99682852828881</v>
+        <v>56.93118367681161</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.99682852828881</v>
+        <v>60.5311603552869</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.99682852828881</v>
+        <v>28.60576393529102</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.99682852828881</v>
+        <v>49.10450513115013</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.99682852828881</v>
+        <v>57.96291108126429</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.99682852828881</v>
+        <v>25.42723324979347</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.99682852828881</v>
+        <v>44.20203841426765</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.99682852828881</v>
+        <v>50.23319690068634</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.99682852828881</v>
+        <v>20.66398767381697</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.99682852828881</v>
+        <v>40.04564484683074</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.99682852828881</v>
+        <v>45.57093509792851</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.99682852828881</v>
+        <v>28.31750101055577</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.99682852828881</v>
+        <v>50.3146845344166</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.99682852828881</v>
+        <v>56.76568964714166</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.99682852828881</v>
+        <v>51.74467020051198</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.99682852828881</v>
+        <v>60.66352031837592</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.99682852828881</v>
+        <v>64.26519288355423</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.99682852828881</v>
+        <v>32.32845726584954</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.99682852828881</v>
+        <v>52.8375143419109</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.99682852828881</v>
+        <v>61.69658938262064</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.99682852828881</v>
+        <v>33.64038837926758</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.99682852828881</v>
+        <v>52.41850691686905</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.99682852828881</v>
+        <v>58.45150583948346</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.99682852828881</v>
+        <v>28.88031686893983</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.99682852828881</v>
+        <v>48.26563336926991</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.99682852828881</v>
+        <v>53.79264069165613</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.99682852828881</v>
+        <v>36.53686503251761</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.99682852828881</v>
+        <v>58.53741223652874</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.99682852828881</v>
+        <v>64.99029520957909</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.99682852828881</v>
+        <v>59.97249631140831</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.99682852828881</v>
+        <v>68.89270205798546</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.99682852828881</v>
+        <v>72.49568483242088</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.99682852828881</v>
+        <v>40.55150288269643</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.99682852828881</v>
+        <v>61.06377114406719</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.99682852828881</v>
+        <v>69.92567310708235</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.99682852828881</v>
+        <v>19.65437066314946</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.99682852828881</v>
+        <v>38.42240497314522</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.99682852828881</v>
+        <v>44.45043767731688</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.99682852828881</v>
+        <v>14.89880732117588</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.99682852828881</v>
+        <v>34.27488544574926</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.99682852828881</v>
+        <v>39.79627326948544</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.99682852828881</v>
+        <v>22.54713006877575</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.99682852828881</v>
+        <v>44.53734035524333</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.99682852828881</v>
+        <v>50.98504137586993</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.99682852828881</v>
+        <v>45.96192612777709</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.99682852828881</v>
+        <v>54.87456964348117</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.99682852828881</v>
+        <v>58.47449246152765</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.99682852828881</v>
+        <v>26.55163149651237</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.99682852828881</v>
+        <v>47.04826207334754</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.99682852828881</v>
+        <v>55.90643971300194</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.99682852828881</v>
+        <v>23.37667150425575</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.99682852828881</v>
+        <v>42.14971381565722</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.99682852828881</v>
+        <v>48.18063664375468</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.99682852828881</v>
+        <v>18.61355180345988</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.99682852828881</v>
+        <v>37.99328156665167</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.99682852828881</v>
+        <v>43.51840101792352</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.99682852828881</v>
+        <v>26.26574752951997</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.99682852828881</v>
+        <v>48.26105813167767</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.99682852828881</v>
+        <v>54.71180291869491</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.99682852828881</v>
+        <v>49.69091395465348</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.99682852828881</v>
+        <v>58.60914350559285</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.99682852828881</v>
+        <v>62.21076216361912</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.99682852828881</v>
+        <v>30.27656234100818</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.99682852828881</v>
+        <v>50.78350836745695</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.99682852828881</v>
+        <v>59.64235517947868</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.99682852828881</v>
+        <v>31.58870041155053</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.99682852828881</v>
+        <v>50.3650560061787</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.99682852828881</v>
+        <v>56.39781913650627</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.99682852828881</v>
+        <v>26.82875458264921</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.99682852828881</v>
+        <v>46.21214356382639</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.99682852828881</v>
+        <v>51.73897994591682</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.99682852828881</v>
+        <v>34.48398494716612</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.99682852828881</v>
+        <v>56.4826591389462</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.99682852828881</v>
+        <v>62.93528165450273</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.99682852828881</v>
+        <v>57.91761314970206</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.99682852828881</v>
+        <v>66.83719829012973</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.99682852828881</v>
+        <v>70.44012716581513</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.99682852828881</v>
+        <v>38.49848128042716</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.99682852828881</v>
+        <v>59.00863837266918</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.99682852828881</v>
+        <v>67.87031198228517</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.99682852828881</v>
+        <v>16.40858315141527</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.99682852828881</v>
+        <v>35.17803220650337</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.99682852828881</v>
+        <v>41.20605044387692</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.99682852828881</v>
+        <v>11.65269855688821</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.99682852828881</v>
+        <v>31.030128649009</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.99682852828881</v>
+        <v>36.55145943640919</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.99682852828881</v>
+        <v>19.30211286653873</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.99682852828881</v>
+        <v>41.29373438182536</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.99682852828881</v>
+        <v>47.74148437658626</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.99682852828881</v>
+        <v>42.71882687542468</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.99682852828881</v>
+        <v>51.63185534557984</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.99682852828881</v>
+        <v>55.23142249379494</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.99682852828881</v>
+        <v>23.30589636121017</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.99682852828881</v>
+        <v>43.80501840330835</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.99682852828881</v>
+        <v>52.66262187247942</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.99682852828881</v>
+        <v>20.12574637232212</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.99682852828881</v>
+        <v>38.90020349385186</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.99682852828881</v>
+        <v>44.93111173667906</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.99682852828881</v>
+        <v>15.36230510228706</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.99682852828881</v>
+        <v>34.74338689550241</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.99682852828881</v>
+        <v>40.26844914114209</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.99682852828881</v>
+        <v>23.01559241378613</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.99682852828881</v>
+        <v>45.01231432423192</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.99682852828881</v>
+        <v>51.46310795778307</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.99682852828881</v>
+        <v>46.44267705096588</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.99682852828881</v>
+        <v>55.36129159530977</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.99682852828881</v>
+        <v>58.96255449868461</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.99682852828881</v>
+        <v>27.02568989018728</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.99682852828881</v>
+        <v>47.53512737617821</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.99682852828881</v>
+        <v>56.39340009437815</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.99682852828881</v>
+        <v>28.34167283833376</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.99682852828881</v>
+        <v>47.11944339105987</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.99682852828881</v>
+        <v>53.15219209982236</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.99682852828881</v>
+        <v>23.58140545003227</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.99682852828881</v>
+        <v>42.96614663036208</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.99682852828881</v>
+        <v>48.49292597636698</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.99682852828881</v>
+        <v>31.23772768049987</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.99682852828881</v>
+        <v>53.23781331581741</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.99682852828881</v>
+        <v>59.69048484780463</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.99682852828881</v>
+        <v>54.67327411055108</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.99682852828881</v>
+        <v>63.59324432406773</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.99682852828881</v>
+        <v>67.19581746237039</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.99682852828881</v>
+        <v>35.2515064327326</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.99682852828881</v>
+        <v>55.76415522279451</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.99682852828881</v>
+        <v>64.62525468626605</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.99682852828881</v>
+        <v>10.7202134565892</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.99682852828881</v>
+        <v>29.48681278321346</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.99682852828881</v>
+        <v>35.51436243149085</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.99682852828881</v>
+        <v>5.963692193604924</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.99682852828881</v>
+        <v>25.33828498895043</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.99682852828881</v>
+        <v>30.85915953061471</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.99682852828881</v>
+        <v>13.61172445945608</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.99682852828881</v>
+        <v>35.60026879977234</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.99682852828881</v>
+        <v>42.04750507396632</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.99682852828881</v>
+        <v>37.02513266024114</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.99682852828881</v>
+        <v>45.93678553345292</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.99682852828881</v>
+        <v>49.53647846199438</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.99682852828881</v>
+        <v>17.6156240665983</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.99682852828881</v>
+        <v>38.11077895771344</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.99682852828881</v>
+        <v>46.96818789439472</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.99682852828881</v>
+        <v>14.4444443122265</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.99682852828881</v>
+        <v>33.21605157641507</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.99682852828881</v>
+        <v>39.24649126258596</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.99682852828881</v>
+        <v>9.680367245936235</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.99682852828881</v>
+        <v>29.0586117073911</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.99682852828881</v>
+        <v>34.58321772668542</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.99682852828881</v>
+        <v>17.33227253453363</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.99682852828881</v>
+        <v>39.32591712966014</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.99682852828881</v>
+        <v>45.77619706620051</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.99682852828881</v>
+        <v>40.75605062910365</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.99682852828881</v>
+        <v>49.67328945031882</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.99682852828881</v>
+        <v>53.27467807505498</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.99682852828881</v>
+        <v>21.34248513868904</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.99682852828881</v>
+        <v>41.84795519522852</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.99682852828881</v>
+        <v>50.70603345406069</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.99682852828881</v>
+        <v>22.65781931581735</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.99682852828881</v>
+        <v>41.43273973047526</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.99682852828881</v>
+        <v>47.46501965287287</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.99682852828881</v>
+        <v>17.89691588701653</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.99682852828881</v>
+        <v>37.27881942732081</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.99682852828881</v>
+        <v>42.80514232931723</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.99682852828881</v>
+        <v>25.55185576297658</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.99682852828881</v>
+        <v>47.54886381043805</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.99682852828881</v>
+        <v>54.00102140574252</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.99682852828881</v>
+        <v>48.98409504886111</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.99682852828881</v>
+        <v>57.90268932728061</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.99682852828881</v>
+        <v>61.50538808453389</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.99682852828881</v>
+        <v>29.56574951631076</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.99682852828881</v>
+        <v>50.07443048266255</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.99682852828881</v>
+        <v>58.93533533689556</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.99682852828881</v>
+        <v>15.9872486048376</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.99682852828881</v>
+        <v>34.75502846258037</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.99682852828881</v>
+        <v>40.78309943209759</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.99682852828881</v>
+        <v>11.23129982119344</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.99682852828881</v>
+        <v>30.60709681507633</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.99682852828881</v>
+        <v>36.12854109121288</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.99682852828881</v>
+        <v>18.87950179388549</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.99682852828881</v>
+        <v>40.86943543823482</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.99682852828881</v>
+        <v>47.31717455058397</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.99682852828881</v>
+        <v>42.29425958281509</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.99682852828881</v>
+        <v>51.20680287265141</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.99682852828881</v>
+        <v>54.80676789159698</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.99682852828881</v>
+        <v>22.88422108709285</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.99682852828881</v>
+        <v>43.38061635525465</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.99682852828881</v>
+        <v>52.23881444230217</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.99682852828881</v>
+        <v>19.70929708812839</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.99682852828881</v>
+        <v>38.48208493690989</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.99682852828881</v>
+        <v>44.51304609141114</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.99682852828881</v>
+        <v>14.94579194263242</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.99682852828881</v>
+        <v>34.32524056671657</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.99682852828881</v>
+        <v>39.8504165360559</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.99682852828881</v>
+        <v>22.59786688462402</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.99682852828881</v>
+        <v>44.59290083402989</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.99682852828881</v>
+        <v>51.04368377313274</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.99682852828881</v>
+        <v>46.02299500618501</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.99682852828881</v>
+        <v>54.94112433346659</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.99682852828881</v>
+        <v>58.54278520973726</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.99682852828881</v>
+        <v>26.60889951506324</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.99682852828881</v>
+        <v>47.11561021546227</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.99682852828881</v>
+        <v>55.97447753778972</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.99682852828881</v>
+        <v>27.92142179413583</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.99682852828881</v>
+        <v>46.69752291945458</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.99682852828881</v>
+        <v>52.73032435768103</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.99682852828881</v>
+        <v>23.16109050248572</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.99682852828881</v>
+        <v>42.54419833786126</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.99682852828881</v>
+        <v>48.07109122169864</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.99682852828881</v>
+        <v>30.81620008971431</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.99682852828881</v>
+        <v>52.81459762394611</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.99682852828881</v>
+        <v>59.26725827068852</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.99682852828881</v>
+        <v>54.24978995861302</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.99682852828881</v>
+        <v>63.16927485650622</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.99682852828881</v>
+        <v>66.77224594565025</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.99682852828881</v>
+        <v>34.83091422689695</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.99682852828881</v>
+        <v>55.34083597678246</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.99682852828881</v>
+        <v>64.20253008580762</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.99682852828881</v>
+        <v>22.66564064265033</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.99682852828881</v>
+        <v>41.43364614014679</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.99682852828881</v>
+        <v>47.46121437128154</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.99682852828881</v>
+        <v>17.90993355886378</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.99682852828881</v>
+        <v>37.28617442756338</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.99682852828881</v>
+        <v>42.80703495276698</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.99682852828881</v>
+        <v>25.55927630709625</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.99682852828881</v>
+        <v>47.54930974357383</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.99682852828881</v>
+        <v>53.9965531951129</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.99682852828881</v>
+        <v>48.9735300823756</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.99682852828881</v>
+        <v>57.88569918954518</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.99682852828881</v>
+        <v>61.48517334288142</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.99682852828881</v>
+        <v>29.56284262172546</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.99682852828881</v>
+        <v>50.05975014050269</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.99682852828881</v>
+        <v>58.91704835110359</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.99682852828881</v>
+        <v>26.38372522113862</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.99682852828881</v>
+        <v>45.15673859501665</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.99682852828881</v>
+        <v>51.1871965454073</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.99682852828881</v>
+        <v>21.62046170910794</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.99682852828881</v>
+        <v>41.00035411656513</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.99682852828881</v>
+        <v>46.52494584368419</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.99682852828881</v>
+        <v>29.27367730467479</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.99682852828881</v>
+        <v>51.26881093707216</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.99682852828881</v>
+        <v>57.71909773672662</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.99682852828881</v>
+        <v>52.69830123077664</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.99682852828881</v>
+        <v>61.61605603886376</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.99682852828881</v>
+        <v>65.21722585130631</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.99682852828881</v>
+        <v>33.28355702351082</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.99682852828881</v>
+        <v>53.79077964053131</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.99682852828881</v>
+        <v>62.64874668796138</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.99682852828881</v>
+        <v>34.59788122175469</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.99682852828881</v>
+        <v>53.37420776993982</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.99682852828881</v>
+        <v>59.40650604196067</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.99682852828881</v>
+        <v>29.83779150954588</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.99682852828881</v>
+        <v>49.22134300763567</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.99682852828881</v>
+        <v>54.74765169208622</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.99682852828881</v>
+        <v>37.49404179787696</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.99682852828881</v>
+        <v>59.49253890274015</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.99682852828881</v>
+        <v>65.94470345645227</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.99682852828881</v>
+        <v>60.92712708104973</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.99682852828881</v>
+        <v>69.84623747517215</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.99682852828881</v>
+        <v>73.44871740098218</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.99682852828881</v>
+        <v>41.50760262686852</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.99682852828881</v>
+        <v>62.01803622687108</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.99682852828881</v>
+        <v>70.8788299827665</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.99682852828881</v>
+        <v>16.71933346632347</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.99682852828881</v>
+        <v>35.48870935742021</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.99682852828881</v>
+        <v>41.51670177645879</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.99682852828881</v>
+        <v>11.96356645236422</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.99682852828881</v>
+        <v>31.34093176045105</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.99682852828881</v>
+        <v>36.86223554357544</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.99682852828881</v>
+        <v>19.61291730225691</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.99682852828881</v>
+        <v>41.60444697124326</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.99682852828881</v>
+        <v>48.05216486124705</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.99682852828881</v>
+        <v>43.02961756514578</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.99682852828881</v>
+        <v>51.94257012546082</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.99682852828881</v>
+        <v>55.54217580105667</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.99682852828881</v>
+        <v>23.61680281073161</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.99682852828881</v>
+        <v>44.11582603275231</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.99682852828881</v>
+        <v>52.97341197842543</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.99682852828881</v>
+        <v>20.43699635468654</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.99682852828881</v>
+        <v>39.2113802798345</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.99682852828881</v>
+        <v>45.24226269822573</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.99682852828881</v>
+        <v>15.67367269829237</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.99682852828881</v>
+        <v>35.05468967972656</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.99682852828881</v>
+        <v>40.57972492826578</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.99682852828881</v>
+        <v>23.32689655215809</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.99682852828881</v>
+        <v>45.32352657893257</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.99682852828881</v>
+        <v>51.77428810098088</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.99682852828881</v>
+        <v>46.75396736401213</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.99682852828881</v>
+        <v>55.67250595010439</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.99682852828881</v>
+        <v>59.2738073680061</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.99682852828881</v>
+        <v>27.33709598020011</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.99682852828881</v>
+        <v>47.84643463101766</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.99682852828881</v>
+        <v>56.70468978149366</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.99682852828881</v>
+        <v>28.65176511241118</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.99682852828881</v>
+        <v>47.42946239536259</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.99682852828881</v>
+        <v>53.46218528872596</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.99682852828881</v>
+        <v>23.89161528239101</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.99682852828881</v>
+        <v>43.27629156929022</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.99682852828881</v>
+        <v>48.8030439274316</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.99682852828881</v>
+        <v>31.54787396594925</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.99682852828881</v>
+        <v>53.5478676445925</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.99682852828881</v>
+        <v>60.00050707311591</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.99682852828881</v>
+        <v>54.9834065243751</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.99682852828881</v>
+        <v>63.90330075501818</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.99682852828881</v>
+        <v>67.50591242468768</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.99682852828881</v>
+        <v>35.56175470317233</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.99682852828881</v>
+        <v>56.07430455068841</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>28.99682852828881</v>
+        <v>64.93538649952616</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.25453765741424</v>
+        <v>15.25453765740003</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.0226824932251</v>
+        <v>34.02268249322601</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>40.05079193026354</v>
+        <v>40.05079193024672</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.49788775990403</v>
+        <v>10.49788775987674</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.87410843841708</v>
+        <v>29.87410843837979</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.39554218696874</v>
+        <v>35.39554218699068</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.14661140929907</v>
+        <v>18.14661140932305</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40.13695034231007</v>
+        <v>40.13695034230939</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>46.58474395620347</v>
+        <v>46.58474395625531</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.56191396997538</v>
+        <v>41.56191396994548</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50.47456447646842</v>
+        <v>50.47456447647762</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54.07451043341605</v>
+        <v>54.0745104334671</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.15130218037707</v>
+        <v>22.15130218037491</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.64814592508169</v>
+        <v>42.64814592508021</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>51.50634150132448</v>
+        <v>51.50634150136086</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.97876193256247</v>
+        <v>18.97876193257134</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.75191495430404</v>
+        <v>37.75191495428938</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.7829146282191</v>
+        <v>43.78291462818943</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.21455552178152</v>
+        <v>14.21455552176844</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.59442798945584</v>
+        <v>33.59442798950688</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.11959349259833</v>
+        <v>39.11959349261595</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.86715248877926</v>
+        <v>21.86715248878108</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43.8625919276936</v>
+        <v>43.86259192773078</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50.31342942365991</v>
+        <v>50.31342942367287</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>45.2928255697479</v>
+        <v>45.29282556976121</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.21106230710878</v>
+        <v>54.21106230711491</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.81270414437422</v>
+        <v>57.81270414440242</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.87815660220822</v>
+        <v>25.87815660223277</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.38531609502634</v>
+        <v>46.38531609502043</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.24418092977244</v>
+        <v>55.24418092978108</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.19161636785902</v>
+        <v>27.19161636784174</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.9680827465523</v>
+        <v>45.96808274654502</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.00092274028755</v>
+        <v>52.00092274031449</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.4305838838023</v>
+        <v>22.43058388378081</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.81411566168534</v>
+        <v>41.81411566169261</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.34099812361929</v>
+        <v>47.34099812357756</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.08621558783484</v>
+        <v>30.08621558781642</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.08501869000425</v>
+        <v>52.08501868999038</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>58.53773392784917</v>
+        <v>58.53773392782075</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53.52035055398058</v>
+        <v>53.52035055397842</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>62.43994287413234</v>
+        <v>62.43994287411586</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>66.0428949072777</v>
+        <v>66.04289490724973</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.10090125722759</v>
+        <v>34.10090125722532</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>54.61127187860332</v>
+        <v>54.61127187857876</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>63.47296351597545</v>
+        <v>63.47296351595885</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21.62152319188733</v>
+        <v>21.62152319190245</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.39144811140666</v>
+        <v>40.39144811139847</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>46.41911697461553</v>
+        <v>46.4191169746277</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.86701687613181</v>
+        <v>16.86701687614727</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.24508244239276</v>
+        <v>36.24508244237968</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>41.76606110072642</v>
+        <v>41.76606110070846</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.51667003190921</v>
+        <v>24.51667003187738</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>46.50867099451757</v>
+        <v>46.50867099453531</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.95608269199597</v>
+        <v>52.95608269198131</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.93324322876749</v>
+        <v>47.93324322878489</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.84620668616965</v>
+        <v>56.84620668619534</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.44553790287257</v>
+        <v>60.44553790285734</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.52006914708666</v>
+        <v>28.52006914710632</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>49.01974662582548</v>
+        <v>49.01974662582468</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>57.87676229431959</v>
+        <v>57.87676229429935</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.33593778143615</v>
+        <v>25.33593778144559</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44.11087065168392</v>
+        <v>44.11087065169382</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>50.14142937939512</v>
+        <v>50.14142937939478</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.57387497597115</v>
+        <v>20.57387497595739</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>39.9555921375008</v>
+        <v>39.95559213744976</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>45.48030206898802</v>
+        <v>45.48030206897234</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.22740096669845</v>
+        <v>28.22740096674415</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>50.22450220397373</v>
+        <v>50.22450220395463</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>56.67495740340003</v>
+        <v>56.67495740337615</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.65434473482863</v>
+        <v>51.6543447348475</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>60.57289411597044</v>
+        <v>60.57289411603445</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>64.17392112933085</v>
+        <v>64.17392112930823</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.23711414863017</v>
+        <v>32.2371141486736</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>52.74710687306363</v>
+        <v>52.74710687307329</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61.60479166388514</v>
+        <v>61.60479166384978</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.55448033280864</v>
+        <v>33.55448033283569</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>52.3327265397465</v>
+        <v>52.33272653972536</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>58.36512572930083</v>
+        <v>58.36512572931311</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.79559132929189</v>
+        <v>28.79559132930781</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.18096776362559</v>
+        <v>48.1809677635825</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.70739481768631</v>
+        <v>53.70739481770597</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.45215241191336</v>
+        <v>36.45215241198169</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>58.45261728530507</v>
+        <v>58.45261728526982</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>64.90495037441049</v>
+        <v>64.90495037439628</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>59.88755765036122</v>
+        <v>59.887557650337</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>68.80746263845795</v>
+        <v>68.80746263845613</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>72.40979976439617</v>
+        <v>72.40979976439628</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>40.46554649825801</v>
+        <v>40.46554649826449</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.97875042791505</v>
+        <v>60.97875042787241</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>69.83926191229553</v>
+        <v>69.83926191227904</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20.81477068850706</v>
+        <v>20.814770688509</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.58418171404317</v>
+        <v>39.5841817140841</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>45.61171725641255</v>
+        <v>45.61171725640993</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.05954351099986</v>
+        <v>16.05954351104306</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.43707516680611</v>
+        <v>35.43707516682396</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.95790806682744</v>
+        <v>40.95790806684666</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.70918578122219</v>
+        <v>23.70918578121298</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45.70071308954</v>
+        <v>45.70071308957274</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>52.14799153786426</v>
+        <v>52.14799153788404</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>47.12542656896046</v>
+        <v>47.12542656894841</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>56.03809097753408</v>
+        <v>56.03809097755864</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>59.63745764932021</v>
+        <v>59.63745764929077</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.71269368030012</v>
+        <v>27.71269368028295</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>48.21171397683629</v>
+        <v>48.21171397686312</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>57.06856581230893</v>
+        <v>57.06856581228074</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.53375158363503</v>
+        <v>24.53375158364629</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.30817066826405</v>
+        <v>43.30817066827372</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.33859606637186</v>
+        <v>49.33859606637834</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.77096813684495</v>
+        <v>19.77096813687133</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.15215151563036</v>
+        <v>39.1521515156381</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.67671570522232</v>
+        <v>44.67671570521607</v>
       </c>
     </row>
     <row r="113">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>49.42111112684593</v>
+        <v>49.42111112684604</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>55.87143306160779</v>
+        <v>55.87143306164053</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.85109453438629</v>
+        <v>50.85109453438766</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.76934485743523</v>
+        <v>59.76934485746877</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>63.37040730173995</v>
+        <v>63.37040730176155</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.43430498666187</v>
+        <v>31.43430498664447</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>51.94364062523466</v>
+        <v>51.94364062524069</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.80116158509379</v>
+        <v>60.80116158506299</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.75202612079029</v>
+        <v>32.75202612080086</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.52975857619101</v>
+        <v>51.52975857619784</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.56202444096364</v>
+        <v>57.5620244409575</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.99241646425839</v>
+        <v>27.99241646427226</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>47.37725916588552</v>
+        <v>47.37725916586005</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.90354047002218</v>
+        <v>52.90354047003366</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.64896681449211</v>
+        <v>35.64896681444232</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.64895817989084</v>
+        <v>57.64895817993666</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.10115801287061</v>
+        <v>64.10115801284742</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>59.08403942961895</v>
+        <v>59.08403942961361</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>68.00364536357024</v>
+        <v>68.00364536356888</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>71.60601794158443</v>
+        <v>71.60601794159557</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.66246928256199</v>
+        <v>39.66246928256164</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>60.17501615272802</v>
+        <v>60.1750161526963</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.03536380151589</v>
+        <v>69.03536380149917</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>13.68838852795154</v>
+        <v>13.6883885279288</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.45599381050609</v>
+        <v>32.45599381051473</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.48378138922574</v>
+        <v>38.48378138921801</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8.931663714660953</v>
+        <v>8.931663714685623</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.30729215767503</v>
+        <v>28.30729215769118</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.82843557358088</v>
+        <v>33.82843557357008</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.57991532642411</v>
+        <v>16.57991532637534</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.56966639814398</v>
+        <v>38.56966639813261</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.01714317797901</v>
+        <v>45.01714317798049</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.9944509042809</v>
+        <v>39.99445090426919</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.90689621762893</v>
+        <v>48.90689621764803</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>52.50674736825052</v>
+        <v>52.50674736822312</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.5848068819168</v>
+        <v>20.5848068818819</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.08108847356148</v>
+        <v>41.08108847354295</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>49.93883114535136</v>
+        <v>49.9388311453442</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.41108041867922</v>
+        <v>17.41108041867228</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.18369371828801</v>
+        <v>36.1836937183037</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.21437153219831</v>
+        <v>42.21437153220582</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.64679915730785</v>
+        <v>12.64679915726374</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.02607926747596</v>
+        <v>32.02607926748927</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.55095440961516</v>
+        <v>37.5509544096188</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.29892389294839</v>
+        <v>20.29892389295396</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>42.29377529658809</v>
+        <v>42.29377529660617</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.74429595457293</v>
+        <v>48.74429595457498</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.72382977260948</v>
+        <v>43.72382977261482</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.64186116969252</v>
+        <v>52.64186116973833</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>56.243408200052</v>
+        <v>56.24340820006269</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.31012863522399</v>
+        <v>24.31012863522831</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.81672567396011</v>
+        <v>44.81672567394715</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.67513765006102</v>
+        <v>53.67513765007966</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.62502924721259</v>
+        <v>25.62502924722532</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.4009558895154</v>
+        <v>44.40095588957725</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.43347400638829</v>
+        <v>50.43347400644753</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.86392183360699</v>
+        <v>20.86392183360858</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.24686123747581</v>
+        <v>40.24686123748116</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>45.77345332057253</v>
+        <v>45.77345332055366</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.51908136377979</v>
+        <v>28.51908136376455</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.51729641786774</v>
+        <v>50.51729641785023</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.96969480597586</v>
+        <v>56.96969480597609</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.95244892649755</v>
+        <v>51.9524489265046</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.87183591470735</v>
+        <v>60.87183591465983</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>64.47469312983419</v>
+        <v>64.47469312983874</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.5339674759917</v>
+        <v>32.53396747596624</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.04377565017292</v>
+        <v>53.04377565021817</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.90501435566689</v>
+        <v>61.90501435566962</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.60420611410775</v>
+        <v>21.6042061140799</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.3729887916124</v>
+        <v>40.37298879158693</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>46.40088604249281</v>
+        <v>46.40088604246235</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.84798350950753</v>
+        <v>16.84798350953481</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.22491470775795</v>
+        <v>36.22491470773248</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>41.74613943298489</v>
+        <v>41.74613943297682</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.49721937500994</v>
+        <v>24.49721937502575</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.4882086083888</v>
+        <v>46.4882086084054</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.93579794209423</v>
+        <v>52.93579794209786</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>47.9126179032116</v>
+        <v>47.91261790321626</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>56.82559669824373</v>
+        <v>56.82559669824202</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>60.42545752118447</v>
+        <v>60.4254575211814</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.50161806913315</v>
+        <v>28.50161806909734</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>48.99894220335132</v>
+        <v>48.99894220335894</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>57.85689691739192</v>
+        <v>57.85689691738078</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.32934564404327</v>
+        <v>25.32934564407033</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.1031364106038</v>
+        <v>44.10313641058822</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>50.13392373069367</v>
+        <v>50.13392373069674</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.56556661616589</v>
+        <v>20.56556661621375</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39.94614956190181</v>
+        <v>39.94614956192011</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>45.47110586534309</v>
+        <v>45.47110586535344</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.21867581048054</v>
+        <v>28.21867581049328</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>50.21476544553282</v>
+        <v>50.21476544555908</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>56.66539849108149</v>
+        <v>56.66539849109309</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>51.64444480633934</v>
+        <v>51.64444480635355</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>60.56300969563956</v>
+        <v>60.56300969561933</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.16456634242896</v>
+        <v>64.16456634240622</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.22938798528976</v>
+        <v>32.2293879853034</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>52.73702770342307</v>
+        <v>52.73702770342261</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.54115229174677</v>
+        <v>33.54115229170402</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.31825634741342</v>
+        <v>52.31825634736522</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>58.35088405262793</v>
+        <v>58.35088405263123</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.78054705465872</v>
+        <v>28.78054705461086</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.164789232194</v>
+        <v>48.16478923211578</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.69146253552704</v>
+        <v>53.69146253552715</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.43669093665081</v>
+        <v>36.43669093658328</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>58.43614416721353</v>
+        <v>58.43614416721967</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>64.8886550273581</v>
+        <v>64.88865502735878</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>59.87092175411028</v>
+        <v>59.87092175410267</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68.79084224008484</v>
+        <v>68.79084224007381</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>72.39370908520341</v>
+        <v>72.39370908519909</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.45108465871904</v>
+        <v>40.45108465868948</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>60.96193545563331</v>
+        <v>60.96193545564695</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>69.82338618203069</v>
+        <v>69.82338618205411</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.62334157299331</v>
+        <v>23.6233415729899</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.39189013847063</v>
+        <v>42.39189013844585</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>48.41886308901515</v>
+        <v>48.41886308896785</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.86884600002731</v>
+        <v>18.86884600004346</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.24562476054503</v>
+        <v>38.24562476054344</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.76588272692204</v>
+        <v>43.76588272695206</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.51825744525247</v>
+        <v>26.51825744525508</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>48.5086896188272</v>
+        <v>48.50868961880003</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>54.95534139363333</v>
+        <v>54.95534139361185</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.9324997420559</v>
+        <v>49.9324997420767</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.84490445401828</v>
+        <v>58.84490445400338</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>62.444070755228</v>
+        <v>62.44407075523766</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.52117277148859</v>
+        <v>30.5211727714696</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>51.01858139522922</v>
+        <v>51.01858139522194</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>59.8748743185359</v>
+        <v>59.87487431852965</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.34850090747143</v>
+        <v>27.34850090743323</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46.12205729670957</v>
+        <v>46.12205729667888</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.15191963172192</v>
+        <v>52.15191963172818</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.58644964320917</v>
+        <v>22.58644964320269</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>41.96688001723165</v>
+        <v>41.96688001719538</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.49086878771352</v>
+        <v>47.49086878772376</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.23973421375929</v>
+        <v>30.2397342137544</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>52.23526651710945</v>
+        <v>52.2352665171032</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>58.68496129723503</v>
+        <v>58.68496129720809</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>53.66434607077584</v>
+        <v>53.66434607081744</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>62.58233629213119</v>
+        <v>62.58233629213528</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>66.18319817503125</v>
+        <v>66.18319817498589</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.24896265921798</v>
+        <v>34.24896265917228</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>54.75668605886183</v>
+        <v>54.75668605887616</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>63.61364788281976</v>
+        <v>63.61364788278679</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.56232391079011</v>
+        <v>35.56232391074953</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>54.33919318765443</v>
+        <v>54.33919318766409</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>60.37089589502428</v>
+        <v>60.37089589500279</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.80344615127121</v>
+        <v>30.80344615119106</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.18753531191301</v>
+        <v>50.18753531189596</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>55.71324107697372</v>
+        <v>55.71324107700225</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.45976535802511</v>
+        <v>38.45976535801488</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>60.45866084254017</v>
+        <v>60.45866084251743</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>66.91023342785077</v>
+        <v>66.91023342787214</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>61.89283809408717</v>
+        <v>61.89283809410809</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>70.81218375805868</v>
+        <v>70.81218375809188</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.41435562459237</v>
+        <v>74.41435562461579</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.47267467348043</v>
+        <v>42.47267467346451</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>62.98360885351981</v>
+        <v>62.98360885354607</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>71.84339721302202</v>
+        <v>71.84339721299928</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.81399845995322</v>
+        <v>12.81399845996618</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.58022978819936</v>
+        <v>31.58022978817821</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.60746299857813</v>
+        <v>37.60746299858722</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.058143686045423</v>
+        <v>8.058143686044286</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.43241187257349</v>
+        <v>27.43241187260464</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.95294528475604</v>
+        <v>32.95294528477696</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.70636367651111</v>
+        <v>15.70636367645552</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37.6944206130806</v>
+        <v>37.69442061304251</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>44.14134157954852</v>
+        <v>44.14134157947042</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.11946408644742</v>
+        <v>39.11946408643003</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>48.03077221370843</v>
+        <v>48.03077221370081</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>51.63001379330076</v>
+        <v>51.6300137933268</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.70989188767994</v>
+        <v>19.70989188763549</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>40.20500137075653</v>
+        <v>40.20500137074562</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>49.06154748913544</v>
+        <v>49.06154748911827</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.54001554697636</v>
+        <v>16.54001554699182</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.31125483108106</v>
+        <v>35.31125483109584</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>41.34137787779464</v>
+        <v>41.34137787779271</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>11.77660526930556</v>
+        <v>11.7766052692727</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.15452513108034</v>
+        <v>31.15452513107864</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.67878986025183</v>
+        <v>36.67878986028389</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.42869839714792</v>
+        <v>19.4286983971112</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>41.42185561604875</v>
+        <v>41.42185561602521</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>47.8718200290793</v>
+        <v>47.87182002907578</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.85216816369241</v>
+        <v>42.85216816370855</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.76906192072325</v>
+        <v>51.76906192074212</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>55.36999915771703</v>
+        <v>55.36999915771715</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.43853906662134</v>
+        <v>23.43853906668205</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>43.94396350030418</v>
+        <v>43.94396350033669</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.80117879496397</v>
+        <v>52.80117879493828</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.75626721849057</v>
+        <v>24.75626721848819</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.53081954852082</v>
+        <v>43.53081954852071</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>49.5627827911854</v>
+        <v>49.56278279118756</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19.99603070511473</v>
+        <v>19.99603070510097</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.37760953680113</v>
+        <v>39.37760953681227</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.90359111203368</v>
+        <v>44.90359111206472</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.6511585258133</v>
+        <v>27.65115852580398</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49.64767909136886</v>
+        <v>49.64767909135067</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>56.09952112510321</v>
+        <v>56.0995211250882</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>51.08308920332861</v>
+        <v>51.08308920331838</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.00133838319046</v>
+        <v>60.00133838318546</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>63.60358563139535</v>
+        <v>63.60358563138239</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.66468008168608</v>
+        <v>31.66468008167744</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>52.17331535159197</v>
+        <v>52.17331535157366</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>61.03335707711774</v>
+        <v>61.03335707712957</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>7.337335399735547</v>
+        <v>7.337335399778862</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.10540475552848</v>
+        <v>26.10540475552484</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.133391838322</v>
+        <v>32.13339183829483</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>2.580809954058349</v>
+        <v>2.580809954061987</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.95693470140698</v>
+        <v>21.95693470141255</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.47823644119883</v>
+        <v>27.47823644121702</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.2289842211838</v>
+        <v>10.22898422113981</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.21921744078698</v>
+        <v>32.21921744078197</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.66691001446095</v>
+        <v>38.66691001442491</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.6444507437654</v>
+        <v>33.64445074374312</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.55732052473907</v>
+        <v>42.55732052471588</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.15718037486677</v>
+        <v>46.15718037483789</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.2340338754504</v>
+        <v>14.23403387542755</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.73089548383071</v>
+        <v>34.73089548386686</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.58876812467209</v>
+        <v>43.58876812468345</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.05871758834446</v>
+        <v>11.05871758832309</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.83179495163069</v>
+        <v>29.83179495161194</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.86267214653317</v>
+        <v>35.86267214651851</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>6.294635635214785</v>
+        <v>6.294635635170106</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.67441202375023</v>
+        <v>25.67441202370373</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.19944534593715</v>
+        <v>31.1994453459268</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.94668305934188</v>
+        <v>13.94668305929617</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.94201660149231</v>
+        <v>35.9420166015088</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.3927529340037</v>
+        <v>42.39275293400438</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.37252004361694</v>
+        <v>37.37252004361865</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>46.29097597604569</v>
+        <v>46.29097597603818</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>49.89253165879343</v>
+        <v>49.89253165878138</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.95804626978083</v>
+        <v>17.95804626982347</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.46522333496803</v>
+        <v>38.46522333494927</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.32376521503404</v>
+        <v>47.32376521501347</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.27254456410135</v>
+        <v>19.27254456407747</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>38.0489352692634</v>
+        <v>38.04893526926089</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>44.08165291790188</v>
+        <v>44.08165291789722</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.51163649941072</v>
+        <v>14.51163649936718</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.89507217810588</v>
+        <v>33.89507217807575</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.4218225927619</v>
+        <v>39.4218225927453</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.166718727017</v>
+        <v>22.16671872697857</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>44.16541591701373</v>
+        <v>44.16541591697167</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.61803013199854</v>
+        <v>50.61803013201116</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.60101749725375</v>
+        <v>45.60101749730548</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.52082907367817</v>
+        <v>54.52082907371626</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.12369497895186</v>
+        <v>58.12369497897835</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.18176334590198</v>
+        <v>26.18176334590869</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>46.69215158219693</v>
+        <v>46.69215158214122</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>55.55352031323919</v>
+        <v>55.55352031326181</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.09284867738445</v>
+        <v>25.09284867738218</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>43.86233443989688</v>
+        <v>43.86233443991553</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>49.8899290495046</v>
+        <v>49.88992904951029</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.33890275995573</v>
+        <v>20.33890275999427</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>39.7167189761894</v>
+        <v>39.7167189761512</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.23757250826891</v>
+        <v>45.23757250826107</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.98897220846352</v>
+        <v>27.98897220847318</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>49.98046795206547</v>
+        <v>49.98046795198907</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>56.42774511089847</v>
+        <v>56.4277451108746</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>51.40486897724118</v>
+        <v>51.40486897721355</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.31750461233192</v>
+        <v>60.31750461232544</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>63.91687805946476</v>
+        <v>63.91687805943668</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.99265132700016</v>
+        <v>31.99265132695934</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>52.49136392629153</v>
+        <v>52.49136392628789</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>61.34849376274674</v>
+        <v>61.34849376269808</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.80714330692781</v>
+        <v>28.80714330691155</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>47.58163695349351</v>
+        <v>47.58163695347123</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>53.6121210581593</v>
+        <v>53.61212105814862</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.04564070678596</v>
+        <v>24.04564070677641</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>43.42710846093344</v>
+        <v>43.42710846092673</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>48.95169294309933</v>
+        <v>48.9516929430841</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.69958285970194</v>
+        <v>31.69958285967875</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>53.69617879805567</v>
+        <v>53.6961787980966</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>60.1464990828443</v>
+        <v>60.14649908282554</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.12584965511958</v>
+        <v>55.12584965509946</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>64.04407100737815</v>
+        <v>64.04407100735803</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>67.64514009996363</v>
+        <v>67.645140099926</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.70957562482324</v>
+        <v>35.70957562481165</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>56.21860324113023</v>
+        <v>56.21860324117945</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>65.07640183037195</v>
+        <v>65.0764018303508</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.02380678528944</v>
+        <v>37.02380678527034</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.80161348907309</v>
+        <v>55.80161348905445</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>61.83393803810618</v>
+        <v>61.83393803807776</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>32.26547818887998</v>
+        <v>32.26547818889533</v>
       </c>
     </row>
     <row r="395">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.1769064906792</v>
+        <v>57.17690649068625</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.92245521102593</v>
+        <v>39.92245521100263</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>61.92241450830279</v>
+        <v>61.92241450832007</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.37461266579778</v>
+        <v>68.37461266582905</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.35718326341085</v>
+        <v>63.35718326343881</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>72.27676012446996</v>
+        <v>72.27676012447962</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.87913926572897</v>
+        <v>75.87913926574818</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.93612888113405</v>
+        <v>43.93612888109313</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>64.44836745975711</v>
+        <v>64.44836745975893</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>73.30899275396014</v>
+        <v>73.30899275393672</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.053272781706095</v>
+        <v>6.053272781723035</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.81917753235161</v>
+        <v>24.81917753235821</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.84656545974435</v>
+        <v>30.84656545975924</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.297074500755524</v>
+        <v>1.297074500766438</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.67080628704771</v>
+        <v>20.67080628705714</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.19160136231103</v>
+        <v>26.19160136233934</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>8.94466102653082</v>
+        <v>8.944661026539574</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.93233078324858</v>
+        <v>30.9323307832371</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.37941686749407</v>
+        <v>37.37941686746565</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.35754664603265</v>
+        <v>32.35754664604833</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.26895191093804</v>
+        <v>41.26895191099011</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.8681682163412</v>
+        <v>44.86816821635439</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>12.94794800641075</v>
+        <v>12.94794800640268</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.44316720145441</v>
+        <v>33.44316720142531</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.29968059504434</v>
+        <v>42.29968059507242</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.774985829739375</v>
+        <v>9.774985829742672</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.54589824591512</v>
+        <v>28.54589824591796</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.57617610812459</v>
+        <v>34.57617610812902</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.011232095922946</v>
+        <v>5.011232095960803</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.38861528943307</v>
+        <v>24.38861528942921</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.91314167092089</v>
+        <v>29.91314167094988</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.66269152284321</v>
+        <v>12.66269152282321</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.65546127896796</v>
+        <v>34.65546127896035</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.10559090978946</v>
+        <v>41.10559090977297</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.08594661624336</v>
+        <v>36.0859466162113</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.00293748104328</v>
+        <v>45.00293748105749</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>48.60384944507457</v>
+        <v>48.60384944509879</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.67229144722371</v>
+        <v>16.6722914472311</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>37.17782518940278</v>
+        <v>37.17782518939653</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>46.03500795037208</v>
+        <v>46.03500795039083</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.99264128410239</v>
+        <v>17.99264128410011</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.76686686270723</v>
+        <v>36.76686686271906</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.798984933417</v>
+        <v>42.79898493340234</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.23206102888851</v>
+        <v>13.23206102889123</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.61310330355623</v>
+        <v>32.6131033035718</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.13934655577528</v>
+        <v>38.13934655575197</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.88655526289365</v>
+        <v>20.88655526292446</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.88268847219179</v>
+        <v>42.88268847216609</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>49.33469573518444</v>
+        <v>49.33469573521957</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.31827112047695</v>
+        <v>44.31827112044694</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>53.23661744111799</v>
+        <v>53.2366174411098</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.83883948789669</v>
+        <v>56.83883948789419</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.8998358909733</v>
+        <v>24.89983589092544</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>45.40858062897424</v>
+        <v>45.40858062896457</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>54.26858978909429</v>
+        <v>54.26858978908633</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.64715266222147</v>
+        <v>15.64715266218316</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>34.41554411381044</v>
+        <v>34.41554411379157</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.44267886668815</v>
+        <v>40.44267886670521</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.89166563413262</v>
+        <v>10.89166563413967</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.26807821539633</v>
+        <v>30.268078215377</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.78853791535649</v>
+        <v>35.78853791536001</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.54043988379562</v>
+        <v>18.54043988375754</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.5308196334707</v>
+        <v>40.53081963345763</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>46.97769271624414</v>
+        <v>46.97769271623299</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.95551680095498</v>
+        <v>41.95551680095521</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>50.86788413681047</v>
+        <v>50.86788413682309</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>54.4670076932576</v>
+        <v>54.4670076932227</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.54388640720408</v>
+        <v>22.543886407181</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>43.04172579194103</v>
+        <v>43.04172579191943</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>51.8979572436569</v>
+        <v>51.89795724366577</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.37222739748172</v>
+        <v>19.3722273974774</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.14562678958573</v>
+        <v>38.14562678958858</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.17565132236594</v>
+        <v>44.17565132238401</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>14.60918483530834</v>
+        <v>14.6091848353047</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.9892491210954</v>
+        <v>33.98924912107653</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.51343997884267</v>
+        <v>39.51343997886359</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.26183228099508</v>
+        <v>22.26183228097268</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>44.25731230096035</v>
+        <v>44.2573123009691</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.70722878931822</v>
+        <v>50.70722878930538</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.68727905237934</v>
+        <v>45.68727905234762</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.60523209887556</v>
+        <v>54.60523209888716</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.20605134830369</v>
+        <v>58.20605134828845</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.27159201173317</v>
+        <v>26.27159201172521</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.77974640654084</v>
+        <v>46.77974640655414</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>55.63664705262563</v>
+        <v>55.63664705261802</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.58963998659733</v>
+        <v>27.5896399865647</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.36635264458239</v>
+        <v>46.36635264457932</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>52.39821757609464</v>
+        <v>52.39821757611624</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.82977089987794</v>
+        <v>22.82977089988692</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.21349439526712</v>
+        <v>42.21349439524813</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.73940229605246</v>
+        <v>47.73940229599062</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.48545326462108</v>
+        <v>30.48545326462802</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>52.48429684283458</v>
+        <v>52.48429684280616</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.93609116222338</v>
+        <v>58.93609116224657</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.919361193223</v>
+        <v>53.91936119323096</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.83866980284445</v>
+        <v>62.83866980282876</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.44079915278094</v>
+        <v>66.44079915278924</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.49889377343943</v>
+        <v>34.49889377343273</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.01025928817133</v>
+        <v>55.01025928816678</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>63.86998648785193</v>
+        <v>63.86998648787944</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>6.136706800572437</v>
+        <v>6.136706800566639</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.90366963364006</v>
+        <v>24.90366963360004</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.93077836176048</v>
+        <v>30.93077836178083</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1.380375303323444</v>
+        <v>1.380375303341179</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.75525226508723</v>
+        <v>20.75525226508894</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.27570864293314</v>
+        <v>26.27570864292825</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>9.028413777955574</v>
+        <v>9.028413777948753</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.017319735929</v>
+        <v>31.01731973596402</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.46417167819432</v>
+        <v>37.4641716782166</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.44235538586061</v>
+        <v>32.44235538580024</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.35414975791612</v>
+        <v>41.35414975788838</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.95308941721915</v>
+        <v>44.95308941719334</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.03204449260984</v>
+        <v>13.03204449257153</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.52841886956953</v>
+        <v>33.52841886955873</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.38448320283437</v>
+        <v>42.38448320279413</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.852784424934793</v>
+        <v>9.852784424965716</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.62475501001775</v>
+        <v>28.62475501003912</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>34.65475373826025</v>
+        <v>34.65475373822512</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>5.088897057846292</v>
+        <v>5.088897057872213</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.46742546119374</v>
+        <v>24.46742546121432</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.99161321584752</v>
+        <v>29.99161321586423</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.74080819520664</v>
+        <v>12.7408081952371</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.73481422901473</v>
+        <v>34.73481422902451</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.18470979871434</v>
+        <v>41.18470979870058</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.16511984385745</v>
+        <v>36.1651198437872</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.08249995873241</v>
+        <v>45.08249995873616</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.68313539796993</v>
+        <v>48.68313539793265</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.75075243544729</v>
+        <v>16.75075243550539</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.25744165907106</v>
+        <v>37.25744165907641</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.1141753298195</v>
+        <v>46.11417532984474</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.07452676337921</v>
+        <v>18.07452676337671</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.84981075804951</v>
+        <v>36.84981075804019</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.88164975400328</v>
+        <v>42.88164975407194</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>13.31381309852322</v>
+        <v>13.31381309852652</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.69600084772624</v>
+        <v>32.69600084778115</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.22190552556056</v>
+        <v>38.22190552556238</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.96875945917038</v>
+        <v>20.96875945913957</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.9661292088402</v>
+        <v>42.9661292088726</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.41790247542185</v>
+        <v>49.41790247541981</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.40153215745904</v>
+        <v>44.40153215739856</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>53.32026782172075</v>
+        <v>53.32026782166947</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.92221334207029</v>
+        <v>56.92221334204108</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>24.98238423619587</v>
+        <v>24.98238423620712</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.49228471743716</v>
+        <v>45.49228471742568</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>54.35184479793948</v>
+        <v>54.35184479794971</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-0.231386315336227</v>
+        <v>-0.2313863153199698</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.53426589290661</v>
+        <v>18.53426589296471</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.56090968478504</v>
+        <v>24.56090968481426</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-4.98802371579534</v>
+        <v>-4.988023715844566</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.38548061894251</v>
+        <v>14.38548061894978</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.90548887552798</v>
+        <v>19.90548887550319</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>2.65888848685206</v>
+        <v>2.658888486852174</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.6463456027546</v>
+        <v>24.64634560275722</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.09272239011279</v>
+        <v>31.09272239009074</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.07129211331171</v>
+        <v>26.07129211334388</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>34.98262222256376</v>
+        <v>34.98262222255887</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>38.58149116547811</v>
+        <v>38.58149116549426</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>6.662574355287529</v>
+        <v>6.66257435524501</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.1574614538709</v>
+        <v>27.15746145382043</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.01296531266333</v>
+        <v>36.01296531265469</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.48663307405543</v>
+        <v>3.486633074053497</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.25729280024809</v>
+        <v>22.25729280028436</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.2868264942535</v>
+        <v>28.28682649431887</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1.27755971017864</v>
+        <v>-1.277559710218885</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.09959591941624</v>
+        <v>18.09959591941965</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.62333540538232</v>
+        <v>23.62333540535583</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.373225110652765</v>
+        <v>6.373225110755424</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.36578206790689</v>
+        <v>28.36578206796771</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.81520237938692</v>
+        <v>34.81520237938123</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.79599825372402</v>
+        <v>29.79599825372447</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>38.71291388276173</v>
+        <v>38.71291388279322</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.3134785341867</v>
+        <v>42.31347853419045</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.38322409896825</v>
+        <v>10.38322409897632</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.88842558585982</v>
+        <v>30.88842558588471</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.74459879827801</v>
+        <v>39.74459879829551</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.70848301441692</v>
+        <v>11.70848301440374</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.48245603335085</v>
+        <v>30.48245603338314</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.51382996084699</v>
+        <v>36.51382996082698</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>6.947463643976857</v>
+        <v>6.947463643975947</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.32827849513781</v>
+        <v>26.32827849513997</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.85373488360501</v>
+        <v>31.85373488361934</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.60128360085066</v>
+        <v>14.6012836008693</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.59720415422119</v>
+        <v>36.59720415423892</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.04850212748416</v>
+        <v>43.04850212742663</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.0325173727061</v>
+        <v>38.03251737267711</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.95078852307968</v>
+        <v>46.9507885231006</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.55266320641677</v>
+        <v>50.55266320641938</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.6149629065804</v>
+        <v>18.61496290656198</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>39.12337555200175</v>
+        <v>39.12337555200129</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.9823750588974</v>
+        <v>47.98237505890411</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>13.67555158545992</v>
+        <v>13.67555158543776</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.44353275579893</v>
+        <v>32.44353275575891</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>38.47151420018004</v>
+        <v>38.47151420016742</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>8.918343895532598</v>
+        <v>8.918343895531688</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.29432891879544</v>
+        <v>28.2943289188092</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.81566548758776</v>
+        <v>33.81566548759595</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.56717390267643</v>
+        <v>16.56717390262243</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.55734411580723</v>
+        <v>38.55734411583769</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>45.00501188718052</v>
+        <v>45.00501188718631</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.98227738460533</v>
+        <v>39.9822773845594</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>48.89482405438578</v>
+        <v>48.89482405438078</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>52.49463960967132</v>
+        <v>52.4946396096479</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.57192170567141</v>
+        <v>20.57192170564492</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.06863653277999</v>
+        <v>41.06863653281523</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>49.92662261483822</v>
+        <v>49.92662261480048</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.39449599343579</v>
+        <v>17.39449599337076</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.16748519561527</v>
+        <v>36.16748519559469</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.19835680182742</v>
+        <v>42.19835680180002</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.62973158820916</v>
+        <v>12.62973158816994</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.00936824236335</v>
+        <v>32.0093682423887</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.53443648174898</v>
+        <v>37.53443648177047</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.28243457969888</v>
+        <v>20.28243457962408</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.27770514579773</v>
+        <v>42.27770514581694</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>48.728416716621</v>
+        <v>48.7284167166144</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.70790862514282</v>
+        <v>43.70790862513179</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>52.62604140809772</v>
+        <v>52.62604140804383</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>56.22755280625513</v>
+        <v>56.22755280623944</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.29349599944312</v>
+        <v>24.2934959994139</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>44.80052633826752</v>
+        <v>44.8005263382433</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>53.65918165483284</v>
+        <v>53.659181654845</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.60976706621529</v>
+        <v>25.60976706620961</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.38606968835252</v>
+        <v>44.38606968835911</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>50.41878163658926</v>
+        <v>50.41878163658278</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.84817668270325</v>
+        <v>20.84817668268881</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.2314727239138</v>
+        <v>40.2314727238964</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.75825793083852</v>
+        <v>45.75825793086194</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.50391457158112</v>
+        <v>28.50391457154633</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>50.50254886513706</v>
+        <v>50.50254886512955</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.95513820665867</v>
+        <v>56.95513820665128</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>51.93785043453711</v>
+        <v>51.93785043454336</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>60.85733882666132</v>
+        <v>60.85733882665666</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>64.46016042494291</v>
+        <v>64.46016042497122</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.518657343812</v>
+        <v>32.51865734378141</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>53.02889889240767</v>
+        <v>53.02889889238448</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.89038098892406</v>
+        <v>61.89038098889758</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.91918790589314</v>
+        <v>18.91918790589189</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.68752465528151</v>
+        <v>37.68752465531334</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>43.71494447406788</v>
+        <v>43.7149444740573</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.16405590551853</v>
+        <v>14.16405590553684</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>33.54036045802589</v>
+        <v>33.540360458026</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.0611362297994</v>
+        <v>39.06113622982464</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.81297266647125</v>
+        <v>21.81297266651331</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>43.8032442538077</v>
+        <v>43.80324425384431</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>50.250400055144</v>
+        <v>50.25040005520789</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>45.22789215480152</v>
+        <v>45.22789215479618</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>54.14028087125332</v>
+        <v>54.14028087122206</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>57.739470569208</v>
+        <v>57.73947056918367</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.81618263184243</v>
+        <v>25.81618263179343</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>46.31424019431286</v>
+        <v>46.3142401943315</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>55.17085671202592</v>
+        <v>55.17085671204627</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.63373821943032</v>
+        <v>22.63373821941361</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>41.40708270378487</v>
+        <v>41.40708270378816</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>47.4373924295049</v>
+        <v>47.43739242949205</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.87105016742641</v>
+        <v>17.87105016739708</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.2510061655898</v>
+        <v>37.25100616558923</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.77551320532002</v>
+        <v>42.77551320529922</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.52383956298565</v>
+        <v>25.5238395630101</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.51921121385597</v>
+        <v>47.51921121387484</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>53.96941055091402</v>
+        <v>53.96941055094017</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.94912917405436</v>
+        <v>48.94912917405004</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.86710359137039</v>
+        <v>57.86710359141996</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>61.46798902253302</v>
+        <v>61.46798902258406</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.5333632530589</v>
+        <v>29.53336325307732</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.04173561574437</v>
+        <v>50.04173561574903</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>58.89902139667841</v>
+        <v>58.89902139669125</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.85203713780215</v>
+        <v>30.85203713781943</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.62869491464274</v>
+        <v>49.62869491460727</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>55.6608449686042</v>
+        <v>55.66084496857975</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.09252263195669</v>
+        <v>26.09252263191918</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.47613784826679</v>
+        <v>45.47613784826486</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>51.00236188064044</v>
+        <v>51.0023618806111</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.74834698791376</v>
+        <v>33.74834698790558</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>55.7470822250735</v>
+        <v>55.7470822250768</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>62.19915931723752</v>
+        <v>62.1991593172482</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.18209775621933</v>
+        <v>57.182097756278</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.10142777216693</v>
+        <v>66.10142777216227</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.70362330266444</v>
+        <v>69.70362330273879</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.76155148387802</v>
+        <v>37.76155148390599</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.27313500123053</v>
+        <v>58.27313500125645</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>67.13324730276038</v>
+        <v>67.13324730274969</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.70716996858944</v>
+        <v>21.70716996861058</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.47696690407606</v>
+        <v>40.47696690407891</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.50523528432912</v>
+        <v>46.5052352843406</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.95148138820953</v>
+        <v>16.95148138822101</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.32948676183692</v>
+        <v>36.32948676186989</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.85104538282708</v>
+        <v>41.85104538283151</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.60112150983975</v>
+        <v>24.60112150983782</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>46.59320449057562</v>
+        <v>46.59320449058255</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>53.04116584440403</v>
+        <v>53.04116584442143</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>48.0179198462849</v>
+        <v>48.01791984630218</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.93118367681161</v>
+        <v>56.93118367678808</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.5311603552869</v>
+        <v>60.53116035528622</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.60576393529102</v>
+        <v>28.6057639352668</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>49.10450513115013</v>
+        <v>49.10450513112148</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.96291108126429</v>
+        <v>57.96291108128635</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.42723324979347</v>
+        <v>25.42723324983394</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>44.20203841426765</v>
+        <v>44.20203841427083</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>50.23319690068634</v>
+        <v>50.2331969006943</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.66398767381697</v>
+        <v>20.66398767381049</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>40.04564484683074</v>
+        <v>40.04564484684893</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.57093509792851</v>
+        <v>45.57093509792908</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.31750101055577</v>
+        <v>28.31750101052064</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>50.3146845344166</v>
+        <v>50.31468453437067</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>56.76568964714166</v>
+        <v>56.7656896471744</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.74467020051198</v>
+        <v>51.74467020054517</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>60.66352031837592</v>
+        <v>60.66352031839115</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>64.26519288355423</v>
+        <v>64.26519288355799</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.32845726584954</v>
+        <v>32.32845726585306</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.8375143419109</v>
+        <v>52.83751434190761</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.69658938262064</v>
+        <v>61.69658938264816</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.64038837926758</v>
+        <v>33.64038837925825</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>52.41850691686905</v>
+        <v>52.41850691686473</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>58.45150583948346</v>
+        <v>58.45150583955269</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.88031686893983</v>
+        <v>28.88031686894369</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>48.26563336926991</v>
+        <v>48.26563336928787</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.79264069165613</v>
+        <v>53.79264069159997</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.53686503251761</v>
+        <v>36.53686503248726</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.53741223652874</v>
+        <v>58.53741223651384</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.99029520957909</v>
+        <v>64.99029520954976</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.97249631140831</v>
+        <v>59.97249631136738</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.89270205798546</v>
+        <v>68.89270205795601</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.49568483242088</v>
+        <v>72.49568483240257</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>40.55150288269643</v>
+        <v>40.55150288266732</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>61.06377114406719</v>
+        <v>61.06377114403899</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.92567310708235</v>
+        <v>69.92567310711247</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.65437066314946</v>
+        <v>19.65437066310444</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.42240497314522</v>
+        <v>38.42240497310884</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>44.45043767731688</v>
+        <v>44.45043767729881</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.89880732117588</v>
+        <v>14.89880732116621</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>34.27488544574926</v>
+        <v>34.27488544576518</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>39.79627326948544</v>
+        <v>39.79627326950693</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.54713006877575</v>
+        <v>22.54713006876223</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>44.53734035524333</v>
+        <v>44.53734035527255</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>50.98504137586993</v>
+        <v>50.98504137590869</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>45.96192612777709</v>
+        <v>45.96192612780222</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>54.87456964348117</v>
+        <v>54.8745696434972</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>58.47449246152765</v>
+        <v>58.47449246153549</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.55163149651237</v>
+        <v>26.55163149651646</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>47.04826207334754</v>
+        <v>47.04826207335584</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>55.90643971300194</v>
+        <v>55.90643971299467</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.37667150425575</v>
+        <v>23.37667150418572</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>42.14971381565722</v>
+        <v>42.14971381565745</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>48.18063664375468</v>
+        <v>48.18063664375241</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>18.61355180345988</v>
+        <v>18.61355180343794</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>37.99328156665167</v>
+        <v>37.99328156662462</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.51840101792352</v>
+        <v>43.51840101792364</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.26574752951997</v>
+        <v>26.26574752953793</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>48.26105813167767</v>
+        <v>48.26105813172781</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>54.71180291869491</v>
+        <v>54.71180291874141</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>49.69091395465348</v>
+        <v>49.69091395464132</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>58.60914350559285</v>
+        <v>58.6091435056115</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>62.21076216361912</v>
+        <v>62.2107621636472</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.27656234100818</v>
+        <v>30.27656234098658</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.78350836745695</v>
+        <v>50.78350836746104</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>59.64235517947868</v>
+        <v>59.64235517949301</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.58870041155053</v>
+        <v>31.58870041152302</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.3650560061787</v>
+        <v>50.36505600617643</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.39781913650627</v>
+        <v>56.39781913654117</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.82875458264921</v>
+        <v>26.82875458262135</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.21214356382639</v>
+        <v>46.21214356379956</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.73897994591682</v>
+        <v>51.73897994588602</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.48398494716612</v>
+        <v>34.48398494721455</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>56.4826591389462</v>
+        <v>56.48265913894757</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.93528165450273</v>
+        <v>62.93528165450978</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.91761314970206</v>
+        <v>57.91761314965977</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.83719829012973</v>
+        <v>66.83719829012291</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>70.44012716581513</v>
+        <v>70.44012716580581</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.49848128042716</v>
+        <v>38.49848128037441</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>59.00863837266918</v>
+        <v>59.00863837270283</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>67.87031198228517</v>
+        <v>67.87031198227471</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.40858315141527</v>
+        <v>16.40858315136957</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.17803220650337</v>
+        <v>35.17803220653191</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.20605044387692</v>
+        <v>41.20605044388351</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.65269855688821</v>
+        <v>11.65269855685558</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.030128649009</v>
+        <v>31.03012864901457</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.55145943640919</v>
+        <v>36.5514594364118</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.30211286653873</v>
+        <v>19.30211286653214</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>41.29373438182536</v>
+        <v>41.29373438182957</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>47.74148437658626</v>
+        <v>47.7414843765974</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.71882687542468</v>
+        <v>42.71882687539751</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.63185534557984</v>
+        <v>51.63185534556824</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.23142249379494</v>
+        <v>55.23142249378425</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.30589636121017</v>
+        <v>23.30589636122279</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>43.80501840330835</v>
+        <v>43.80501840331802</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>52.66262187247942</v>
+        <v>52.66262187247408</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>20.12574637232212</v>
+        <v>20.1257463723319</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.90020349385186</v>
+        <v>38.90020349388494</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>44.93111173667906</v>
+        <v>44.93111173669088</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>15.36230510228706</v>
+        <v>15.36230510232401</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.74338689550241</v>
+        <v>34.74338689550844</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.26844914114209</v>
+        <v>40.26844914112515</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.01559241378613</v>
+        <v>23.01559241369155</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.01231432423192</v>
+        <v>45.01231432415098</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>51.46310795778307</v>
+        <v>51.46310795770314</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.44267705096588</v>
+        <v>46.4426770508929</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>55.36129159530977</v>
+        <v>55.36129159527839</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.96255449868461</v>
+        <v>58.96255449869018</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.02568989018728</v>
+        <v>27.02568989018557</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>47.53512737617821</v>
+        <v>47.53512737618355</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>56.39340009437815</v>
+        <v>56.39340009441101</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.34167283833376</v>
+        <v>28.34167283832114</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>47.11944339105987</v>
+        <v>47.11944339102827</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.15219209982236</v>
+        <v>53.15219209982725</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.58140545003227</v>
+        <v>23.5814054500076</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.96614663036208</v>
+        <v>42.9661466303166</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.49292597636698</v>
+        <v>48.49292597637084</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.23772768049987</v>
+        <v>31.23772768047713</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.23781331581741</v>
+        <v>53.23781331575829</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>59.69048484780463</v>
+        <v>59.69048484775733</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.67327411055108</v>
+        <v>54.67327411051197</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>63.59324432406773</v>
+        <v>63.59324432405317</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>67.19581746237039</v>
+        <v>67.19581746235129</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.2515064327326</v>
+        <v>35.25150643272566</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>55.76415522279451</v>
+        <v>55.76415522279838</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.62525468626605</v>
+        <v>64.62525468627321</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>10.7202134565892</v>
+        <v>10.72021345659625</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.48681278321346</v>
+        <v>29.48681278318504</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.51436243149085</v>
+        <v>35.51436243147084</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.963692193604924</v>
+        <v>5.96369219358321</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.33828498895043</v>
+        <v>25.33828498895577</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.85915953061471</v>
+        <v>30.85915953060949</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.61172445945608</v>
+        <v>13.61172445943266</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.60026879977234</v>
+        <v>35.60026879977256</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>42.04750507396632</v>
+        <v>42.04750507395904</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.02513266024114</v>
+        <v>37.02513266024046</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>45.93678553345292</v>
+        <v>45.93678553343223</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>49.53647846199438</v>
+        <v>49.53647846196641</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.6156240665983</v>
+        <v>17.61562406659011</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.11077895771344</v>
+        <v>38.11077895772071</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>46.96818789439472</v>
+        <v>46.96818789436925</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.4444443122265</v>
+        <v>14.44444431220274</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.21605157641507</v>
+        <v>33.2160515764228</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>39.24649126258596</v>
+        <v>39.24649126262541</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>9.680367245936235</v>
+        <v>9.680367245907131</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.0586117073911</v>
+        <v>29.05861170741498</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.58321772668542</v>
+        <v>34.58321772671043</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.33227253453363</v>
+        <v>17.33227253453158</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.32591712966014</v>
+        <v>39.32591712971778</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.77619706620051</v>
+        <v>45.77619706627338</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.75605062910365</v>
+        <v>40.75605062908217</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>49.67328945031882</v>
+        <v>49.67328945029949</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>53.27467807505498</v>
+        <v>53.27467807505441</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.34248513868904</v>
+        <v>21.34248513865073</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.84795519522852</v>
+        <v>41.84795519520419</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.70603345406069</v>
+        <v>50.70603345403079</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.65781931581735</v>
+        <v>22.65781931586748</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.43273973047526</v>
+        <v>41.43273973047481</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>47.46501965287287</v>
+        <v>47.4650196528665</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>17.89691588701653</v>
+        <v>17.89691588700107</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.27881942732081</v>
+        <v>37.27881942730444</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.80514232931723</v>
+        <v>42.80514232934736</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.55185576297658</v>
+        <v>25.5518557629402</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>47.54886381043805</v>
+        <v>47.5488638104343</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.00102140574252</v>
+        <v>54.00102140567158</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.98409504886111</v>
+        <v>48.98409504883882</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>57.90268932728061</v>
+        <v>57.90268932724935</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.50538808453389</v>
+        <v>61.50538808450638</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.56574951631076</v>
+        <v>29.56574951629518</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.07443048266255</v>
+        <v>50.07443048265596</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>58.93533533689556</v>
+        <v>58.93533533685816</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.9872486048376</v>
+        <v>15.98724860487819</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>34.75502846258037</v>
+        <v>34.75502846260913</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.78309943209759</v>
+        <v>40.78309943211862</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>11.23129982119344</v>
+        <v>11.2312998211441</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.60709681507633</v>
+        <v>30.60709681507712</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.12854109121288</v>
+        <v>36.12854109123403</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.87950179388549</v>
+        <v>18.87950179387628</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.86943543823482</v>
+        <v>40.86943543821435</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.31717455058397</v>
+        <v>47.3171745505684</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.29425958281509</v>
+        <v>42.29425958279064</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.20680287265141</v>
+        <v>51.20680287260843</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.80676789159698</v>
+        <v>54.8067678915689</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.88422108709285</v>
+        <v>22.88422108707398</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>43.38061635525465</v>
+        <v>43.38061635525533</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.23881444230217</v>
+        <v>52.23881444229694</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.70929708812839</v>
+        <v>19.70929708814533</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>38.48208493690989</v>
+        <v>38.48208493691295</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>44.51304609141114</v>
+        <v>44.51304609147867</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.94579194263242</v>
+        <v>14.94579194262901</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.32524056671657</v>
+        <v>34.32524056671737</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>39.8504165360559</v>
+        <v>39.85041653608683</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.59786688462402</v>
+        <v>22.59786688456741</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.59290083402989</v>
+        <v>44.59290083396418</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>51.04368377313274</v>
+        <v>51.04368377311933</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.02299500618501</v>
+        <v>46.02299500621127</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>54.94112433346659</v>
+        <v>54.94112433349251</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.54278520973726</v>
+        <v>58.54278520977375</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.60889951506324</v>
+        <v>26.6088995150812</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.11561021546227</v>
+        <v>47.11561021544647</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.97447753778972</v>
+        <v>55.97447753778074</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.92142179413583</v>
+        <v>27.92142179415994</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>46.69752291945458</v>
+        <v>46.69752291946288</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>52.73032435768103</v>
+        <v>52.73032435772014</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.16109050248572</v>
+        <v>23.16109050243933</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.54419833786126</v>
+        <v>42.54419833786308</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.07109122169864</v>
+        <v>48.07109122168124</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.81620008971431</v>
+        <v>30.81620008971988</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.81459762394611</v>
+        <v>52.81459762397147</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.26725827068852</v>
+        <v>59.26725827067885</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.24978995861302</v>
+        <v>54.24978995861075</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>63.16927485650622</v>
+        <v>63.16927485654954</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>66.77224594565025</v>
+        <v>66.7722459456357</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.83091422689695</v>
+        <v>34.83091422690161</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.34083597678246</v>
+        <v>55.34083597681077</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.20253008580762</v>
+        <v>64.20253008584673</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.66564064265033</v>
+        <v>22.66564064263532</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.43364614014679</v>
+        <v>41.43364614014997</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.46121437128154</v>
+        <v>47.46121437127472</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.90993355886378</v>
+        <v>17.90993355885605</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>37.28617442756338</v>
+        <v>37.28617442756315</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>42.80703495276698</v>
+        <v>42.80703495275596</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.55927630709625</v>
+        <v>25.55927630703873</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>47.54930974357383</v>
+        <v>47.54930974354575</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>53.9965531951129</v>
+        <v>53.99655319509425</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>48.9735300823756</v>
+        <v>48.97353008235673</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>57.88569918954518</v>
+        <v>57.88569918958781</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>61.48517334288142</v>
+        <v>61.48517334290734</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.56284262172546</v>
+        <v>29.56284262168351</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>50.05975014050269</v>
+        <v>50.05975014048643</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>58.91704835110359</v>
+        <v>58.91704835109825</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.38372522113862</v>
+        <v>26.38372522112838</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>45.15673859501665</v>
+        <v>45.15673859496492</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>51.1871965454073</v>
+        <v>51.18719654537058</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.62046170910794</v>
+        <v>21.62046170909225</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>41.00035411656513</v>
+        <v>41.00035411659674</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>46.52494584368419</v>
+        <v>46.5249458436959</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.27367730467479</v>
+        <v>29.27367730463875</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>51.26881093707216</v>
+        <v>51.26881093701168</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>57.71909773672662</v>
+        <v>57.71909773671457</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>52.69830123077664</v>
+        <v>52.69830123078573</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>61.61605603886376</v>
+        <v>61.61605603885296</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>65.21722585130631</v>
+        <v>65.21722585126993</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.28355702351082</v>
+        <v>33.28355702347399</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>53.79077964053131</v>
+        <v>53.79077964051949</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>62.64874668796138</v>
+        <v>62.64874668791158</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.59788122175469</v>
+        <v>34.59788122177095</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>53.37420776993982</v>
+        <v>53.3742077699256</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>59.40650604196067</v>
+        <v>59.40650604196567</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.83779150954588</v>
+        <v>29.8377915095477</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.22134300763567</v>
+        <v>49.22134300764158</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>54.74765169208622</v>
+        <v>54.7476516920794</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>37.49404179787696</v>
+        <v>37.49404179785365</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>59.49253890274015</v>
+        <v>59.49253890271878</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>65.94470345645227</v>
+        <v>65.94470345643158</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>60.92712708104973</v>
+        <v>60.92712708101779</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>69.84623747517215</v>
+        <v>69.84623747515987</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>73.44871740098218</v>
+        <v>73.44871740100946</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.50760262686852</v>
+        <v>41.507602626826</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>62.01803622687108</v>
+        <v>62.01803622684163</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>70.8788299827665</v>
+        <v>70.87882998277242</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.71933346632347</v>
+        <v>16.7193334663029</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.48870935742021</v>
+        <v>35.48870935741918</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>41.51670177645879</v>
+        <v>41.51670177646209</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.96356645236422</v>
+        <v>11.96356645240298</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.34093176045105</v>
+        <v>31.34093176045219</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.86223554357544</v>
+        <v>36.86223554357282</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>19.61291730225691</v>
+        <v>19.61291730228829</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>41.60444697124326</v>
+        <v>41.60444697121393</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>48.05216486124705</v>
+        <v>48.0521648612375</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.02961756514578</v>
+        <v>43.02961756520934</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>51.94257012546082</v>
+        <v>51.94257012543513</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>55.54217580105667</v>
+        <v>55.54217580106588</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.61680281073161</v>
+        <v>23.6168028106983</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>44.11582603275231</v>
+        <v>44.11582603276015</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>52.97341197842543</v>
+        <v>52.9734119784534</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>20.43699635468654</v>
+        <v>20.43699635463197</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.2113802798345</v>
+        <v>39.21138027983268</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>45.24226269822573</v>
+        <v>45.24226269822687</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>15.67367269829237</v>
+        <v>15.67367269825963</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.05468967972656</v>
+        <v>35.05468967972077</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>40.57972492826578</v>
+        <v>40.57972492825566</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.32689655215809</v>
+        <v>23.3268965521441</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>45.32352657893257</v>
+        <v>45.32352657889767</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.77428810098088</v>
+        <v>51.77428810095815</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>46.75396736401213</v>
+        <v>46.75396736392959</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.67250595010439</v>
+        <v>55.67250594999173</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.2738073680061</v>
+        <v>59.27380736799303</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.33709598020011</v>
+        <v>27.33709598019466</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>47.84643463101766</v>
+        <v>47.84643463089135</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>56.70468978149366</v>
+        <v>56.70468978143283</v>
       </c>
     </row>
     <row r="976">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>47.42946239536259</v>
+        <v>47.42946239535077</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>53.46218528872596</v>
+        <v>53.46218528873449</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>23.89161528239101</v>
+        <v>23.89161528238089</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>43.27629156929022</v>
+        <v>43.27629156925055</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.8030439274316</v>
+        <v>48.80304392746616</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.54787396594925</v>
+        <v>31.54787396596141</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>53.5478676445925</v>
+        <v>53.54786764459318</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>60.00050707311591</v>
+        <v>60.00050707311841</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>54.9834065243751</v>
+        <v>54.98340652435395</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>63.90330075501818</v>
+        <v>63.90330075500681</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>67.50591242468768</v>
+        <v>67.50591242467733</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>35.56175470317233</v>
+        <v>35.5617547031331</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>56.07430455068841</v>
+        <v>56.0743045506667</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.93538649952616</v>
+        <v>64.9353864994841</v>
       </c>
     </row>
   </sheetData>
